--- a/wyniki_GA/ga_ ackley.ga .xlsx
+++ b/wyniki_GA/ga_ ackley.ga .xlsx
@@ -535,25 +535,25 @@
         <v>20.0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.020252522428251E-4</v>
+        <v>0.02110755443572998</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0015136846206759461</v>
+        <v>0.0030182600021362305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004678199445500297</v>
+        <v>0.07237010256861609</v>
       </c>
       <c r="G2" t="n">
-        <v>2.188555005187929E-5</v>
+        <v>0.005237431745792013</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I2" t="n">
-        <v>75.0</v>
+        <v>32.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="K2" t="s">
         <v>102</v>
@@ -565,25 +565,25 @@
         <v>40.0</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.001091092824935913</v>
+        <v>2.460777759552002E-4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0017526745796203613</v>
+        <v>0.00411301851272583</v>
       </c>
       <c r="P2" t="n">
-        <v>0.005952900462364852</v>
+        <v>0.01210618455187884</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5437023914823667E-5</v>
+        <v>1.4655970440414988E-4</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S2" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08999999999923602</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="U2" t="s">
         <v>102</v>
@@ -595,25 +595,25 @@
         <v>70.0</v>
       </c>
       <c r="X2" t="n">
-        <v>-7.62689848696671E-8</v>
+        <v>-1.6202897594381605E-5</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.3646417596727065E-5</v>
+        <v>8.323790003703339E-6</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.689740631315999E-5</v>
+        <v>5.153120923395704E-5</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.4752629714280185E-9</v>
+        <v>2.6554655251138597E-9</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.27000000000001023</v>
       </c>
       <c r="AE2" t="s">
         <v>102</v>
@@ -625,25 +625,25 @@
         <v>100.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.8655238343031238E-5</v>
+        <v>-1.0701692967813095E-4</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.9842367959332656E-5</v>
+        <v>4.840052257568349E-4</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.2448407983711718E-4</v>
+        <v>0.0014085805502723758</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.5496286132893762E-8</v>
+        <v>1.984099166605629E-6</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM2" t="n">
-        <v>100.0</v>
+        <v>67.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.3099999999994907</v>
+        <v>0.269999999999996</v>
       </c>
       <c r="AO2" t="s">
         <v>102</v>
@@ -655,25 +655,25 @@
         <v>200.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.318551406518854E-6</v>
+        <v>0.001504089114242253</v>
       </c>
       <c r="AS2" t="n">
-        <v>-6.571173688309071E-6</v>
+        <v>-0.0010915356339790136</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.895775729465754E-5</v>
+        <v>0.005348377744930133</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.593965616431412E-10</v>
+        <v>2.8605144502463934E-5</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW2" t="n">
-        <v>100.0</v>
+        <v>37.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.5299999999997453</v>
+        <v>0.269999999999996</v>
       </c>
       <c r="AY2" t="s">
         <v>102</v>
@@ -690,25 +690,25 @@
         <v>20.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.006887958700221023</v>
+        <v>-0.013090370709053101</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2008793078599704E-4</v>
+        <v>0.0036301028827088024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.020768702937438377</v>
+        <v>0.04332923027550706</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3133902170356146E-4</v>
+        <v>0.0018774221962679174</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I3" t="n">
-        <v>72.0</v>
+        <v>78.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="K3" t="s">
         <v>102</v>
@@ -720,25 +720,25 @@
         <v>40.0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.61138321975962E-5</v>
+        <v>5.410611629486084E-4</v>
       </c>
       <c r="O3" t="n">
-        <v>-9.631524110595576E-5</v>
+        <v>3.2770633697509766E-4</v>
       </c>
       <c r="P3" t="n">
-        <v>3.8535136811646E-4</v>
+        <v>0.0017998097131730617</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4849567690922745E-7</v>
+        <v>3.2393150036320987E-6</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S3" t="n">
-        <v>83.0</v>
+        <v>54.0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.15999999999985448</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="U3" t="s">
         <v>102</v>
@@ -750,25 +750,25 @@
         <v>70.0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.0054691885227755E-4</v>
+        <v>0.0012309104204177856</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.0015264629931716202</v>
+        <v>1.5103816986083984E-4</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.004389159962634892</v>
+        <v>0.0035486210103314875</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.9264725177597127E-5</v>
+        <v>1.2592711074966067E-5</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.0</v>
+        <v>73.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.21000000000003638</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="AE3" t="s">
         <v>102</v>
@@ -780,25 +780,25 @@
         <v>100.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-4.180755764366448E-5</v>
+        <v>-5.018622298019347E-8</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.2719356462913126E-5</v>
+        <v>-1.0243164328004404E-5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.3464233805393633E-4</v>
+        <v>2.8975185543345106E-5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.812855919663047E-8</v>
+        <v>8.395613772712752E-10</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM3" t="n">
-        <v>81.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.24000000000069122</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AO3" t="s">
         <v>102</v>
@@ -810,25 +810,25 @@
         <v>200.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-9.334797564538534E-5</v>
+        <v>-3.0100345611572266E-6</v>
       </c>
       <c r="AS3" t="n">
-        <v>-6.0707494495718434E-5</v>
+        <v>2.6300549507141113E-5</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.1528089086307887E-4</v>
+        <v>7.487356117863442E-5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.940204014341665E-8</v>
+        <v>5.606050163570711E-9</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW3" t="n">
-        <v>69.0</v>
+        <v>92.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.3000000000001819</v>
+        <v>0.5900000000000034</v>
       </c>
       <c r="AY3" t="s">
         <v>102</v>
@@ -845,25 +845,25 @@
         <v>20.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.038726533746339E-5</v>
+        <v>7.346979153924026E-4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009695448785875811</v>
+        <v>2.0426382797955888E-4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02992467167014823</v>
+        <v>0.0021723427964808195</v>
       </c>
       <c r="G4" t="n">
-        <v>8.954859745661719E-4</v>
+        <v>4.719073225422107E-6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I4" t="n">
-        <v>74.0</v>
+        <v>92.0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.11000000000058208</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="K4" t="s">
         <v>102</v>
@@ -875,25 +875,25 @@
         <v>40.0</v>
       </c>
       <c r="N4" t="n">
-        <v>4.37067204114479E-4</v>
+        <v>0.001066115092508951</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.232260557719083E-4</v>
+        <v>-0.0017035119599272674</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0012898972630672745</v>
+        <v>0.0057915881069448005</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6638349492684456E-6</v>
+        <v>3.3542492800504456E-5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S4" t="n">
-        <v>45.0</v>
+        <v>54.0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06999999999970896</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="U4" t="s">
         <v>102</v>
@@ -905,25 +905,25 @@
         <v>70.0</v>
       </c>
       <c r="X4" t="n">
-        <v>7.127225399017334E-4</v>
+        <v>-0.0026334375143051147</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.0213255882263184E-4</v>
+        <v>1.447051763534546E-4</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0020502696214350635</v>
+        <v>0.00764492024531549</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.2036055205794785E-6</v>
+        <v>5.8444805557234645E-5</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="AE4" t="s">
         <v>102</v>
@@ -935,25 +935,25 @@
         <v>100.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>-1.473950892091425E-5</v>
+        <v>3.0452647087048616E-6</v>
       </c>
       <c r="AI4" t="n">
-        <v>-1.6049788818794377E-4</v>
+        <v>7.075214253945912E-5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.56558588911804E-4</v>
+        <v>2.0043610233244635E-4</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.0844574510913764E-7</v>
+        <v>4.017463111822291E-8</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM4" t="n">
-        <v>87.0</v>
+        <v>61.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.32999999999992724</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AO4" t="s">
         <v>102</v>
@@ -965,25 +965,25 @@
         <v>200.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.451208584066807E-4</v>
+        <v>1.4776231900300085E-5</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.0826099904674195E-6</v>
+        <v>1.539264812297348E-6</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.1103602001157924E-4</v>
+        <v>4.2025526294509064E-5</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.6895060974695937E-7</v>
+        <v>1.7661448603304727E-9</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW4" t="n">
-        <v>59.0</v>
+        <v>100.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.3000000000001819</v>
+        <v>0.6400000000000006</v>
       </c>
       <c r="AY4" t="s">
         <v>102</v>
@@ -1000,25 +1000,25 @@
         <v>20.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.011460408568382263</v>
+        <v>0.0019441681858191554</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0043236613273620605</v>
+        <v>-1.3861964830700927E-4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03863572478485722</v>
+        <v>0.005614056056522543</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0014927192296512303</v>
+        <v>3.151762540577744E-5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I5" t="n">
-        <v>58.0</v>
+        <v>70.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="K5" t="s">
         <v>102</v>
@@ -1030,25 +1030,25 @@
         <v>40.0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.008934836957669216</v>
+        <v>0.0024993967519963338</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0027669358843659606</v>
+        <v>-0.0011572633975042474</v>
       </c>
       <c r="P5" t="n">
-        <v>0.028783654735196507</v>
+        <v>0.007992373155417454</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.284987799150003E-4</v>
+        <v>6.387802865543755E-5</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S5" t="n">
-        <v>55.0</v>
+        <v>78.0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.11000000000058208</v>
+        <v>0.11999999999999744</v>
       </c>
       <c r="U5" t="s">
         <v>102</v>
@@ -1060,25 +1060,25 @@
         <v>70.0</v>
       </c>
       <c r="X5" t="n">
-        <v>3.291216750668694E-4</v>
+        <v>1.3893372029383818E-5</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.306183677661432E-4</v>
+        <v>-2.465205421478955E-5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0015408016219744525</v>
+        <v>8.005879204375788E-5</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.3740696382791037E-6</v>
+        <v>6.409410183505669E-9</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.17000000000007276</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="AE5" t="s">
         <v>102</v>
@@ -1090,25 +1090,25 @@
         <v>100.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.979968070983887E-5</v>
+        <v>-8.602639486745905E-5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.725703477859497E-4</v>
+        <v>-1.231420619214729E-5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.088908554284899E-4</v>
+        <v>2.460007000664177E-4</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.589699027387402E-7</v>
+        <v>6.051634443316761E-8</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM5" t="n">
-        <v>75.0</v>
+        <v>84.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="AO5" t="s">
         <v>102</v>
@@ -1120,25 +1120,25 @@
         <v>200.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-1.2165647692840824E-4</v>
+        <v>-1.8857823617923126E-6</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.4032931418666997E-4</v>
+        <v>1.064930650616777E-6</v>
       </c>
       <c r="AT5" t="n">
-        <v>5.262192703199275E-4</v>
+        <v>6.125646848431643E-6</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.76906720456037E-7</v>
+        <v>3.7523549311700515E-11</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW5" t="n">
-        <v>49.0</v>
+        <v>81.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AY5" t="s">
         <v>102</v>
@@ -1155,25 +1155,25 @@
         <v>20.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.757161855697632E-4</v>
+        <v>0.0015894519444137453</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0017349421977996826</v>
+        <v>0.004867561934696499</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005050900861395036</v>
+        <v>0.015181003160432027</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5511599511641113E-5</v>
+        <v>2.304628569570472E-4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I6" t="n">
-        <v>100.0</v>
+        <v>49.0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.15999999999985448</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="K6" t="s">
         <v>102</v>
@@ -1185,25 +1185,25 @@
         <v>40.0</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.0362604314843142E-4</v>
+        <v>0.0011749352053623255</v>
       </c>
       <c r="O6" t="n">
-        <v>5.814061324887179E-5</v>
+        <v>-0.016733681134446104</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3645556393935294E-4</v>
+        <v>0.05492232449573109</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.1320234650574801E-7</v>
+        <v>0.0030164617280143834</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S6" t="n">
-        <v>85.0</v>
+        <v>97.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.14000000000032742</v>
+        <v>0.17999999999999972</v>
       </c>
       <c r="U6" t="s">
         <v>102</v>
@@ -1215,25 +1215,25 @@
         <v>70.0</v>
       </c>
       <c r="X6" t="n">
-        <v>3.352051514031499E-6</v>
+        <v>-5.242719590201346E-5</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.717364782809873E-5</v>
+        <v>-1.5650748925529653E-4</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.9035263274247427E-4</v>
+        <v>4.6757192687962856E-4</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.623412479199129E-8</v>
+        <v>2.186235068059287E-7</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC6" t="n">
         <v>100.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="AE6" t="s">
         <v>102</v>
@@ -1245,22 +1245,22 @@
         <v>100.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.473852406507992E-5</v>
+        <v>-1.5458837173166074E-5</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.036339375258794E-6</v>
+        <v>4.053634200715372E-5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.358851694760915E-5</v>
+        <v>1.2275857588761596E-4</v>
       </c>
       <c r="AK6" t="n">
-        <v>5.4152698265485594E-9</v>
+        <v>1.5069667953955566E-8</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM6" t="n">
-        <v>98.0</v>
+        <v>95.0</v>
       </c>
       <c r="AN6" t="n">
         <v>0.25</v>
@@ -1275,25 +1275,25 @@
         <v>200.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.0966422308278521E-5</v>
+        <v>1.0446751027161162E-5</v>
       </c>
       <c r="AS6" t="n">
-        <v>6.037743488434626E-6</v>
+        <v>-1.817285933036071E-6</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.541228118564277E-5</v>
+        <v>2.999461087327404E-5</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.2540296587710288E-9</v>
+        <v>8.996766814391294E-10</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW6" t="n">
         <v>100.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.5200000000004366</v>
+        <v>0.6699999999999875</v>
       </c>
       <c r="AY6" t="s">
         <v>102</v>
@@ -1310,25 +1310,25 @@
         <v>20.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19846965979823067</v>
+        <v>-0.06318728625774384</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1962920244598282</v>
+        <v>0.014972224831581116</v>
       </c>
       <c r="F7" t="n">
-        <v>2.108933994029883</v>
+        <v>0.2922894200927253</v>
       </c>
       <c r="G7" t="n">
-        <v>4.447602591174833</v>
+        <v>0.08543310509814164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I7" t="n">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="K7" t="s">
         <v>102</v>
@@ -1340,25 +1340,25 @@
         <v>40.0</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.573148995314169E-4</v>
+        <v>0.00232522189617157</v>
       </c>
       <c r="O7" t="n">
-        <v>-2.146001113978185E-5</v>
+        <v>-0.005015149712562561</v>
       </c>
       <c r="P7" t="n">
-        <v>4.497459517089908E-4</v>
+        <v>0.01644899531377675</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.0227142107862588E-7</v>
+        <v>2.7056944683264946E-4</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S7" t="n">
-        <v>80.0</v>
+        <v>45.0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.14000000000032742</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="U7" t="s">
         <v>102</v>
@@ -1370,25 +1370,25 @@
         <v>70.0</v>
       </c>
       <c r="X7" t="n">
-        <v>-7.70272012633522E-6</v>
+        <v>-2.0131468772888184E-4</v>
       </c>
       <c r="Y7" t="n">
-        <v>-3.8822476773830656E-5</v>
+        <v>5.838274955749512E-5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.1198872267570437E-4</v>
+        <v>5.94047353462912E-4</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.254147400653582E-8</v>
+        <v>3.5289225815628993E-7</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC7" t="n">
-        <v>96.0</v>
+        <v>56.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.23000000000047294</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AE7" t="s">
         <v>102</v>
@@ -1400,25 +1400,25 @@
         <v>100.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.004419760706792028</v>
+        <v>1.8923916270715932E-5</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.0013510339598571844</v>
+        <v>7.323648943363767E-6</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.01364065563685557</v>
+        <v>5.740437437751211E-5</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.8606748620327964E-4</v>
+        <v>3.2952621976735693E-9</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM7" t="n">
-        <v>45.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.3499999999999943</v>
       </c>
       <c r="AO7" t="s">
         <v>102</v>
@@ -1430,25 +1430,25 @@
         <v>200.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-2.0291639570945657E-6</v>
+        <v>2.5331974029541016E-5</v>
       </c>
       <c r="AS7" t="n">
-        <v>-6.244751377604355E-6</v>
+        <v>2.8505921363830566E-5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.8573046435932383E-5</v>
+        <v>1.0791144640265316E-4</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.449580539113006E-10</v>
+        <v>1.1644880264712684E-8</v>
       </c>
       <c r="AV7" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW7" t="n">
-        <v>100.0</v>
+        <v>72.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.5500000000001819</v>
+        <v>0.37000000000000455</v>
       </c>
       <c r="AY7" t="s">
         <v>102</v>
@@ -1465,25 +1465,25 @@
         <v>20.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.004819093411187032</v>
+        <v>0.0029656256952820194</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0018987560536094955</v>
+        <v>3.745334126798622E-5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.015364574734100245</v>
+        <v>0.008622940360300646</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3607015675975162E-4</v>
+        <v>7.435510045730184E-5</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I8" t="n">
-        <v>61.0</v>
+        <v>100.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.0899999999999963</v>
       </c>
       <c r="K8" t="s">
         <v>102</v>
@@ -1495,25 +1495,25 @@
         <v>40.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0013751238584518433</v>
+        <v>-0.0032868418338193525</v>
       </c>
       <c r="O8" t="n">
-        <v>-4.738718271255493E-4</v>
+        <v>5.957077840089295E-5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.004170235014271384</v>
+        <v>0.009585863421829544</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.739086007425505E-5</v>
+        <v>9.188877754196961E-5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S8" t="n">
-        <v>55.0</v>
+        <v>77.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.13000000000010914</v>
+        <v>0.1600000000000037</v>
       </c>
       <c r="U8" t="s">
         <v>102</v>
@@ -1525,25 +1525,25 @@
         <v>70.0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.0033459256776343E-4</v>
+        <v>9.483895654972814E-4</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.57755445015692E-5</v>
+        <v>-7.841538477256986E-4</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.250408124024773E-4</v>
+        <v>0.0035209446729354</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.0565152972726243E-7</v>
+        <v>1.239705138987217E-5</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.0</v>
+        <v>44.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.18999999999959982</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="AE8" t="s">
         <v>102</v>
@@ -1555,25 +1555,25 @@
         <v>100.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-7.233158893606959E-5</v>
+        <v>1.749750208643154E-4</v>
       </c>
       <c r="AI8" t="n">
-        <v>-1.0079529285654445E-5</v>
+        <v>2.0156845925320692E-5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.067035020054675E-4</v>
+        <v>4.990032078886486E-4</v>
       </c>
       <c r="AK8" t="n">
-        <v>4.272633774132431E-8</v>
+        <v>2.4900420148316185E-7</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM8" t="n">
-        <v>81.0</v>
+        <v>66.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.18000000000029104</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="AO8" t="s">
         <v>102</v>
@@ -1585,25 +1585,25 @@
         <v>200.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.9237612141038513E-6</v>
+        <v>-6.624854443791207E-7</v>
       </c>
       <c r="AS8" t="n">
-        <v>4.308817703443865E-6</v>
+        <v>3.263690124423927E-6</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.4728733319202547E-5</v>
+        <v>9.419662685417052E-6</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.169355851881873E-10</v>
+        <v>8.873004510703838E-11</v>
       </c>
       <c r="AV8" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW8" t="n">
         <v>100.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.4899999999997817</v>
+        <v>0.5799999999999983</v>
       </c>
       <c r="AY8" t="s">
         <v>102</v>
@@ -1620,25 +1620,25 @@
         <v>20.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01780176586754812</v>
+        <v>0.0010226419321584233</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.736242241106846E-4</v>
+        <v>0.012295650265099416</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05880240943350401</v>
+        <v>0.038945969990084706</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0034577233551854416</v>
+        <v>0.0015167885784685784</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I9" t="n">
-        <v>45.0</v>
+        <v>71.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07000000000061846</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="K9" t="s">
         <v>102</v>
@@ -1650,25 +1650,25 @@
         <v>40.0</v>
       </c>
       <c r="N9" t="n">
-        <v>-5.752891302108765E-4</v>
+        <v>0.0012607276439666748</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2424588203430176E-4</v>
+        <v>0.001869291067123413</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0016739052668128807</v>
+        <v>0.006512615664313159</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.801958842263901E-6</v>
+        <v>4.2414162791057135E-5</v>
       </c>
       <c r="R9" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S9" t="n">
-        <v>83.0</v>
+        <v>100.0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.15999999999985448</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="U9" t="s">
         <v>102</v>
@@ -1680,25 +1680,25 @@
         <v>70.0</v>
       </c>
       <c r="X9" t="n">
-        <v>8.85109249589392E-6</v>
+        <v>1.2121402490788491E-4</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.446968059231237E-6</v>
+        <v>1.1803921086109422E-4</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.661998319870463E-5</v>
+        <v>4.7931086449892746E-4</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.3410231694734094E-9</v>
+        <v>2.297389048267092E-7</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC9" t="n">
         <v>91.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.22999999999956344</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="AE9" t="s">
         <v>102</v>
@@ -1710,25 +1710,25 @@
         <v>100.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-3.154575824737549E-4</v>
+        <v>1.3304559570263244E-4</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.64320182800293E-5</v>
+        <v>-5.560898652643461E-5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.045568487699995E-4</v>
+        <v>4.084114160960439E-4</v>
       </c>
       <c r="AK9" t="n">
-        <v>8.182230926567118E-7</v>
+        <v>1.6679988479757593E-7</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM9" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.18999999999959982</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AO9" t="s">
         <v>102</v>
@@ -1740,25 +1740,25 @@
         <v>200.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-2.5026711941678605E-5</v>
+        <v>1.6189806936753057E-6</v>
       </c>
       <c r="AS9" t="n">
-        <v>-8.142491137242032E-5</v>
+        <v>8.638178689233109E-7</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.4113060260688712E-4</v>
+        <v>5.190295670587375E-6</v>
       </c>
       <c r="AU9" t="n">
-        <v>5.8143967513560517E-8</v>
+        <v>2.6939169148118048E-11</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW9" t="n">
-        <v>81.0</v>
+        <v>99.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.3900000000003274</v>
+        <v>0.5</v>
       </c>
       <c r="AY9" t="s">
         <v>102</v>
@@ -1775,25 +1775,25 @@
         <v>20.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004365295895858947</v>
+        <v>0.007364742356699478</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0089135988296568</v>
+        <v>-0.0028809008381490303</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03069372991511088</v>
+        <v>0.024032192057269697</v>
       </c>
       <c r="G10" t="n">
-        <v>9.421050561017725E-4</v>
+        <v>5.775462550774967E-4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I10" t="n">
-        <v>53.0</v>
+        <v>69.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05999999999949068</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="K10" t="s">
         <v>102</v>
@@ -1805,25 +1805,25 @@
         <v>40.0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.004949116963316354</v>
+        <v>2.8101876710482244E-4</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0025073743377508756</v>
+        <v>-0.0021196782468224044</v>
       </c>
       <c r="P10" t="n">
-        <v>0.016511669866581258</v>
+        <v>0.006169555057489617</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7263524178296753E-4</v>
+        <v>3.8063409607395715E-5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S10" t="n">
-        <v>61.0</v>
+        <v>90.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08999999999923602</v>
+        <v>0.25</v>
       </c>
       <c r="U10" t="s">
         <v>102</v>
@@ -1835,25 +1835,25 @@
         <v>70.0</v>
       </c>
       <c r="X10" t="n">
-        <v>-4.4369986480837645E-5</v>
+        <v>-1.67841304166546E-5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.2772553924138656E-5</v>
+        <v>-2.9849093720673002E-5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.951371074468966E-4</v>
+        <v>9.688887165282267E-5</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.807849070274167E-8</v>
+        <v>9.387453450157144E-9</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC10" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.21000000000003638</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="AE10" t="s">
         <v>102</v>
@@ -1865,25 +1865,25 @@
         <v>100.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.139192891367563E-5</v>
+        <v>5.556639544234943E-5</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.2530674037661676E-4</v>
+        <v>1.9851919358225708E-5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0012203339890923814</v>
+        <v>1.6698724227381945E-4</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.4892150449341245E-6</v>
+        <v>2.7884739082215272E-8</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM10" t="n">
-        <v>47.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="AO10" t="s">
         <v>102</v>
@@ -1895,25 +1895,25 @@
         <v>200.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>3.993511199951172E-6</v>
+        <v>1.0994528850874914E-5</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.1979212760925293E-5</v>
+        <v>-1.105581227534171E-6</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.321108356743821E-5</v>
+        <v>3.125730384923031E-5</v>
       </c>
       <c r="AU10" t="n">
-        <v>3.995641085769657E-9</v>
+        <v>9.77019043923108E-10</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW10" t="n">
-        <v>94.0</v>
+        <v>69.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.5</v>
+        <v>0.35999999999999943</v>
       </c>
       <c r="AY10" t="s">
         <v>102</v>
@@ -1930,25 +1930,25 @@
         <v>20.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.1585394910270244E-4</v>
+        <v>0.02038446107336266</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.06075996679282507</v>
+        <v>-0.002026413506237397</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2672282110987716</v>
+        <v>0.06907590968942046</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07141091680704964</v>
+        <v>0.004771481299420971</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I11" t="n">
-        <v>96.0</v>
+        <v>56.0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.15999999999985448</v>
+        <v>0.0800000000000054</v>
       </c>
       <c r="K11" t="s">
         <v>102</v>
@@ -1960,25 +1960,25 @@
         <v>40.0</v>
       </c>
       <c r="N11" t="n">
-        <v>9.428131096251013E-4</v>
+        <v>9.156610678840406E-5</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.003693750481562754</v>
+        <v>0.002097338990926647</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0111694010719674</v>
+        <v>0.006055174028944066</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.247555203064665E-4</v>
+        <v>3.666513252079871E-5</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S11" t="n">
-        <v>46.0</v>
+        <v>75.0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0999999999994543</v>
+        <v>0.0899999999999963</v>
       </c>
       <c r="U11" t="s">
         <v>102</v>
@@ -1990,25 +1990,25 @@
         <v>70.0</v>
       </c>
       <c r="X11" t="n">
-        <v>3.1441450119018555E-6</v>
+        <v>1.565425365359078E-4</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.1920928955078125E-6</v>
+        <v>-2.8725925448206194E-4</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.507272498154862E-6</v>
+        <v>9.281538943106682E-4</v>
       </c>
       <c r="AA11" t="n">
-        <v>9.038823035417179E-11</v>
+        <v>8.61469651524059E-7</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC11" t="n">
-        <v>100.0</v>
+        <v>74.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.28000000000065484</v>
+        <v>0.18000000000000682</v>
       </c>
       <c r="AE11" t="s">
         <v>102</v>
@@ -2020,25 +2020,25 @@
         <v>100.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>-1.1866695135492997E-4</v>
+        <v>2.0710297323609043E-4</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.908537278776273E-4</v>
+        <v>-7.0137178705656E-4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.001995730232650317</v>
+        <v>0.002082697646120124</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.9829391615144875E-6</v>
+        <v>4.337629485154306E-6</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM11" t="n">
-        <v>62.0</v>
+        <v>70.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.19000000000050932</v>
+        <v>0.28000000000000114</v>
       </c>
       <c r="AO11" t="s">
         <v>102</v>
@@ -2050,25 +2050,25 @@
         <v>200.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>6.273365194319825E-6</v>
+        <v>-1.5394722586395502E-4</v>
       </c>
       <c r="AS11" t="n">
-        <v>-1.9044156290358547E-6</v>
+        <v>4.7868025750267326E-5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.8544479672755187E-5</v>
+        <v>4.5668417254418614E-4</v>
       </c>
       <c r="AU11" t="n">
-        <v>3.4389772633323035E-10</v>
+        <v>2.0856043345236797E-7</v>
       </c>
       <c r="AV11" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW11" t="n">
-        <v>100.0</v>
+        <v>45.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.569999999999709</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AY11" t="s">
         <v>102</v>
@@ -2085,25 +2085,25 @@
         <v>20.0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.06773310899734497</v>
+        <v>0.005508854985237122</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.766932249069214E-4</v>
+        <v>-0.0025851279497146606</v>
       </c>
       <c r="F12" t="n">
-        <v>0.30926363939730805</v>
+        <v>0.018197501067653832</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0956439986532682</v>
+        <v>3.3114904510726236E-4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I12" t="n">
-        <v>78.0</v>
+        <v>66.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="K12" t="s">
         <v>102</v>
@@ -2115,25 +2115,25 @@
         <v>40.0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.003332362486660323</v>
+        <v>3.285313407713541E-5</v>
       </c>
       <c r="O12" t="n">
-        <v>-5.19474534780226E-4</v>
+        <v>6.337492440738072E-4</v>
       </c>
       <c r="P12" t="n">
-        <v>0.009842036168731028</v>
+        <v>0.0018056441352776176</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.686567594660972E-5</v>
+        <v>3.260350743262455E-6</v>
       </c>
       <c r="R12" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S12" t="n">
-        <v>65.0</v>
+        <v>72.0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.18999999999959982</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="U12" t="s">
         <v>102</v>
@@ -2145,25 +2145,25 @@
         <v>70.0</v>
       </c>
       <c r="X12" t="n">
-        <v>7.224529981613159E-4</v>
+        <v>1.095490441217094E-6</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.647109985351562E-4</v>
+        <v>-7.656236133693798E-5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.002802388312684201</v>
+        <v>2.167293478940735E-4</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.853380255069002E-6</v>
+        <v>4.697161023859034E-8</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC12" t="n">
-        <v>48.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="AE12" t="s">
         <v>102</v>
@@ -2175,25 +2175,25 @@
         <v>100.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>-1.8354164020906538E-5</v>
+        <v>-5.69200405077091E-4</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.432960570027401E-5</v>
+        <v>-2.685259278911923E-4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.1014565358280493E-4</v>
+        <v>0.0017906490807959585</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.2132065003183267E-8</v>
+        <v>3.2064241305554113E-6</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM12" t="n">
-        <v>99.0</v>
+        <v>55.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.2600000000002183</v>
+        <v>0.22999999999998977</v>
       </c>
       <c r="AO12" t="s">
         <v>102</v>
@@ -2205,25 +2205,25 @@
         <v>200.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.483053984218991E-6</v>
+        <v>-1.5138737925859445E-5</v>
       </c>
       <c r="AS12" t="n">
-        <v>8.033654287318495E-6</v>
+        <v>2.9329532996655485E-5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.3785096725958965E-5</v>
+        <v>9.338436845141018E-5</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.657308262632239E-10</v>
+        <v>8.720640271068733E-9</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW12" t="n">
-        <v>100.0</v>
+        <v>69.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.5100000000002183</v>
+        <v>0.38000000000000966</v>
       </c>
       <c r="AY12" t="s">
         <v>102</v>
@@ -2240,25 +2240,25 @@
         <v>20.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0015487223863601685</v>
+        <v>0.012602584817085774</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.013746321201324463</v>
+        <v>0.017526952573412972</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04421408604074628</v>
+        <v>0.07342882210105373</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001954885404418515</v>
+        <v>0.005391791915148196</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I13" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="K13" t="s">
         <v>102</v>
@@ -2270,25 +2270,25 @@
         <v>40.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.003495131164626346</v>
+        <v>0.00414548530736511</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0338282688123542</v>
+        <v>0.0023765307151228376</v>
       </c>
       <c r="P13" t="n">
-        <v>0.12669747509501406</v>
+        <v>0.014123216057814858</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.016052250195451707</v>
+        <v>1.9946523181571947E-4</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S13" t="n">
-        <v>51.0</v>
+        <v>59.0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="U13" t="s">
         <v>102</v>
@@ -2300,25 +2300,25 @@
         <v>70.0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.1903624628458735E-5</v>
+        <v>0.008895620703697205</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.8963319382558368E-4</v>
+        <v>-6.61015510559082E-4</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.40900101988484E-4</v>
+        <v>0.027347394524291246</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.9257292033115244E-7</v>
+        <v>7.478799872672349E-4</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC13" t="n">
-        <v>100.0</v>
+        <v>32.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.0899999999999892</v>
       </c>
       <c r="AE13" t="s">
         <v>102</v>
@@ -2330,25 +2330,25 @@
         <v>100.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.978612577680903E-7</v>
+        <v>-1.3863654302698398E-4</v>
       </c>
       <c r="AI13" t="n">
-        <v>4.124340184909868E-5</v>
+        <v>1.613990183343879E-4</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.1672109481608572E-4</v>
+        <v>6.0300100003019E-4</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.3623813975065673E-8</v>
+        <v>3.636102060374092E-7</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM13" t="n">
-        <v>100.0</v>
+        <v>54.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.2899999999999636</v>
+        <v>0.25</v>
       </c>
       <c r="AO13" t="s">
         <v>102</v>
@@ -2360,25 +2360,25 @@
         <v>200.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-6.398440496298524E-6</v>
+        <v>-1.7881393432617188E-6</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.073474477686592E-6</v>
+        <v>1.952052116394043E-6</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.145534008946015E-5</v>
+        <v>7.485994828471121E-6</v>
       </c>
       <c r="AU13" t="n">
-        <v>4.603316183543959E-10</v>
+        <v>5.604011857189637E-11</v>
       </c>
       <c r="AV13" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW13" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.5</v>
+        <v>0.5899999999999892</v>
       </c>
       <c r="AY13" t="s">
         <v>102</v>
@@ -2395,25 +2395,25 @@
         <v>20.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0026989972407803</v>
+        <v>-2.6554625131666948E-5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03921006658862941</v>
+        <v>-0.00211577398965649</v>
       </c>
       <c r="F14" t="n">
-        <v>0.15177964998568783</v>
+        <v>0.006104000168953405</v>
       </c>
       <c r="G14" t="n">
-        <v>0.023037062149777906</v>
+        <v>3.72588180625832E-5</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I14" t="n">
-        <v>35.0</v>
+        <v>51.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="K14" t="s">
         <v>102</v>
@@ -2425,25 +2425,25 @@
         <v>40.0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0011840760707855225</v>
+        <v>0.01762266457080841</v>
       </c>
       <c r="O14" t="n">
-        <v>-4.7434866428375244E-4</v>
+        <v>0.03768480562413687</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0036511312759124337</v>
+        <v>0.16317654491513167</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.3330759593945956E-5</v>
+        <v>0.026626584810439984</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S14" t="n">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="U14" t="s">
         <v>102</v>
@@ -2455,25 +2455,25 @@
         <v>70.0</v>
       </c>
       <c r="X14" t="n">
-        <v>-9.483983372076611E-5</v>
+        <v>0.0017531365156173706</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.0010709678051648171</v>
+        <v>-0.004560515284538269</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0030717897829681817</v>
+        <v>0.01445487339851681</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.435892470747709E-6</v>
+        <v>2.089433649671489E-4</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC14" t="n">
-        <v>70.0</v>
+        <v>46.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.19000000000050932</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="AE14" t="s">
         <v>102</v>
@@ -2485,25 +2485,25 @@
         <v>100.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>-2.193748950958252E-4</v>
+        <v>6.983727216720581E-4</v>
       </c>
       <c r="AI14" t="n">
-        <v>-1.268535852432251E-4</v>
+        <v>-0.0010143518447875977</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.184500596970622E-4</v>
+        <v>0.0035236224407810823</v>
       </c>
       <c r="AK14" t="n">
-        <v>5.161704882787123E-7</v>
+        <v>1.2415915105176032E-5</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM14" t="n">
-        <v>74.0</v>
+        <v>48.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.21999999999934516</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="AO14" t="s">
         <v>102</v>
@@ -2515,25 +2515,25 @@
         <v>200.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-1.666689030158129E-6</v>
+        <v>-3.2292913163762673E-6</v>
       </c>
       <c r="AS14" t="n">
-        <v>-4.844631684813747E-6</v>
+        <v>5.7262811326182285E-6</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.4491608784084065E-5</v>
+        <v>1.8595476429794644E-5</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.1000672515094242E-10</v>
+        <v>3.4579174365104815E-10</v>
       </c>
       <c r="AV14" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW14" t="n">
-        <v>89.0</v>
+        <v>82.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.4399999999995998</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AY14" t="s">
         <v>102</v>
@@ -2550,25 +2550,25 @@
         <v>20.0</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.303897413606629E-4</v>
+        <v>7.879108529415813E-4</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.005926666598753024</v>
+        <v>5.043983601196436E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01788029997034002</v>
+        <v>0.0026693913176742967</v>
       </c>
       <c r="G15" t="n">
-        <v>3.197051270293413E-4</v>
+        <v>7.1256500068749185E-6</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I15" t="n">
-        <v>57.0</v>
+        <v>100.0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="K15" t="s">
         <v>102</v>
@@ -2580,25 +2580,25 @@
         <v>40.0</v>
       </c>
       <c r="N15" t="n">
-        <v>4.502516357188296E-4</v>
+        <v>-0.15575652637697918</v>
       </c>
       <c r="O15" t="n">
-        <v>1.004677679366183E-5</v>
+        <v>-0.010878428778631356</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00127922189538765</v>
+        <v>0.9781535103801922</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6364086576391718E-6</v>
+        <v>0.9567842898690927</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S15" t="n">
-        <v>48.0</v>
+        <v>34.0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.06999999999970896</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="U15" t="s">
         <v>102</v>
@@ -2610,25 +2610,25 @@
         <v>70.0</v>
       </c>
       <c r="X15" t="n">
-        <v>-4.5672059059143066E-5</v>
+        <v>-4.4405460357666016E-6</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.0460615158081055E-5</v>
+        <v>-4.450976848602295E-5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.3259319494807187E-4</v>
+        <v>1.2658548846999906E-4</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.758095534653739E-8</v>
+        <v>1.6023885891188267E-8</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC15" t="n">
         <v>100.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.18999999999959982</v>
+        <v>1.1299999999999955</v>
       </c>
       <c r="AE15" t="s">
         <v>102</v>
@@ -2640,25 +2640,25 @@
         <v>100.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-7.818862047451302E-7</v>
+        <v>-2.289223833438675E-4</v>
       </c>
       <c r="AI15" t="n">
-        <v>-1.9508554001384054E-6</v>
+        <v>1.7974382794973514E-4</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5.944649782207989E-6</v>
+        <v>8.25485033175255E-4</v>
       </c>
       <c r="AK15" t="n">
-        <v>3.533886103310549E-11</v>
+        <v>6.814255399963519E-7</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM15" t="n">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.3099999999994907</v>
+        <v>0.22000000000001307</v>
       </c>
       <c r="AO15" t="s">
         <v>102</v>
@@ -2670,25 +2670,25 @@
         <v>200.0</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.4707446098327637E-5</v>
+        <v>-3.175384325910635E-6</v>
       </c>
       <c r="AS15" t="n">
-        <v>4.486739635467529E-5</v>
+        <v>9.65234228372604E-7</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.336043439899015E-4</v>
+        <v>9.387409040328976E-6</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.785012073297193E-8</v>
+        <v>8.812344849045017E-11</v>
       </c>
       <c r="AV15" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW15" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.38000000000010914</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="AY15" t="s">
         <v>102</v>
@@ -2705,25 +2705,25 @@
         <v>20.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.012418567040416717</v>
+        <v>-1.2352744719553062E-4</v>
       </c>
       <c r="E16" t="n">
-        <v>5.175058272604685E-4</v>
+        <v>0.10455924451845734</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03926404068950262</v>
+        <v>0.562245008617051</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0015416648912669176</v>
+        <v>0.3161194497147877</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I16" t="n">
-        <v>81.0</v>
+        <v>64.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="K16" t="s">
         <v>102</v>
@@ -2735,25 +2735,25 @@
         <v>40.0</v>
       </c>
       <c r="N16" t="n">
-        <v>-4.044175148010254E-4</v>
+        <v>-1.465529203414917E-4</v>
       </c>
       <c r="O16" t="n">
-        <v>7.650703191757202E-4</v>
+        <v>-1.4097988605499268E-4</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0024676130294345455</v>
+        <v>5.762865087639568E-4</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.0891140630351355E-6</v>
+        <v>3.321061401833501E-7</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S16" t="n">
-        <v>88.0</v>
+        <v>84.0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.18999999999959982</v>
+        <v>0.13000000000000256</v>
       </c>
       <c r="U16" t="s">
         <v>102</v>
@@ -2765,25 +2765,25 @@
         <v>70.0</v>
       </c>
       <c r="X16" t="n">
-        <v>-2.9088505035508968E-5</v>
+        <v>-8.740013914694234E-6</v>
       </c>
       <c r="Y16" t="n">
-        <v>-7.044380518596718E-5</v>
+        <v>1.8648379670778393E-4</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.1571850405166515E-4</v>
+        <v>5.28962871428007E-4</v>
       </c>
       <c r="AA16" t="n">
-        <v>4.653447299028827E-8</v>
+        <v>2.798017193493623E-7</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC16" t="n">
-        <v>100.0</v>
+        <v>96.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.7599999999999909</v>
       </c>
       <c r="AE16" t="s">
         <v>102</v>
@@ -2795,25 +2795,25 @@
         <v>100.0</v>
       </c>
       <c r="AH16" t="n">
-        <v>-1.5227773358851657E-4</v>
+        <v>-4.176795482635498E-5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.6270542339175066E-4</v>
+        <v>2.238154411315918E-5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6.316338397596155E-4</v>
+        <v>1.3408635847156347E-4</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.9896130752947563E-7</v>
+        <v>1.7979151528164622E-8</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM16" t="n">
-        <v>53.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.3300000000000125</v>
       </c>
       <c r="AO16" t="s">
         <v>102</v>
@@ -2825,25 +2825,25 @@
         <v>200.0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-5.475686306079171E-6</v>
+        <v>-2.862960135143177E-5</v>
       </c>
       <c r="AS16" t="n">
-        <v>5.155393570221644E-6</v>
+        <v>-8.864920360288237E-4</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.127331346457595E-5</v>
+        <v>0.0025296334479136817</v>
       </c>
       <c r="AU16" t="n">
-        <v>4.525538657621084E-10</v>
+        <v>6.399045380803661E-6</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW16" t="n">
-        <v>100.0</v>
+        <v>57.0</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.5600000000004002</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="AY16" t="s">
         <v>102</v>
@@ -2860,25 +2860,25 @@
         <v>20.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005260288715362549</v>
+        <v>0.0023423104523000505</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0031118839979171753</v>
+        <v>-0.0013573703505707275</v>
       </c>
       <c r="F17" t="n">
-        <v>0.018281271923218156</v>
+        <v>0.007852232947811899</v>
       </c>
       <c r="G17" t="n">
-        <v>3.342049031306445E-4</v>
+        <v>6.165756226670274E-5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I17" t="n">
-        <v>37.0</v>
+        <v>49.0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.030000000000654836</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="K17" t="s">
         <v>102</v>
@@ -2890,25 +2890,25 @@
         <v>40.0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.003089040517807007</v>
+        <v>0.08583302867973319</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0011004805564880371</v>
+        <v>0.1268799604596191</v>
       </c>
       <c r="P17" t="n">
-        <v>0.009561319556034675</v>
+        <v>0.9689435045585384</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.141883165261111E-5</v>
+        <v>0.9388515150261824</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S17" t="n">
-        <v>53.0</v>
+        <v>29.0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="U17" t="s">
         <v>102</v>
@@ -2920,25 +2920,25 @@
         <v>70.0</v>
       </c>
       <c r="X17" t="n">
-        <v>-3.7379850353432714E-4</v>
+        <v>4.4290776812107164E-5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.301614464236844E-4</v>
+        <v>-1.2020205502700942E-4</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0014172455939629458</v>
+        <v>3.6276508179255984E-4</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.008585073607383E-6</v>
+        <v>1.3159850456796263E-7</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC17" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.45999999999999375</v>
       </c>
       <c r="AE17" t="s">
         <v>102</v>
@@ -2950,25 +2950,25 @@
         <v>100.0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.001058340072631836</v>
+        <v>-3.871955768215063E-5</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0014567077159881592</v>
+        <v>-7.721212589010922E-5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.005179134786274631</v>
+        <v>2.4450858227709205E-4</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.6823437134399964E-5</v>
+        <v>5.978444680715349E-8</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM17" t="n">
-        <v>45.0</v>
+        <v>84.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.11000000000058208</v>
+        <v>0.25</v>
       </c>
       <c r="AO17" t="s">
         <v>102</v>
@@ -2980,25 +2980,25 @@
         <v>200.0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1.7781938939390738E-4</v>
+        <v>7.182908555550174E-5</v>
       </c>
       <c r="AS17" t="n">
-        <v>-6.184176122985886E-5</v>
+        <v>-1.0358074260730294E-6</v>
       </c>
       <c r="AT17" t="n">
-        <v>5.334408703951965E-4</v>
+        <v>2.0332187209248787E-4</v>
       </c>
       <c r="AU17" t="n">
-        <v>2.8455916220798484E-7</v>
+        <v>4.1339783671193995E-8</v>
       </c>
       <c r="AV17" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW17" t="n">
-        <v>52.0</v>
+        <v>60.0</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.2899999999999636</v>
+        <v>0.3499999999999943</v>
       </c>
       <c r="AY17" t="s">
         <v>102</v>
@@ -3015,25 +3015,25 @@
         <v>20.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007122653576944761</v>
+        <v>0.05191396176815033</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0023283792343612676</v>
+        <v>-0.3062137821209968</v>
       </c>
       <c r="F18" t="n">
-        <v>0.022689641781433068</v>
+        <v>2.2269483392817477</v>
       </c>
       <c r="G18" t="n">
-        <v>5.148198441697531E-4</v>
+        <v>4.959298905829734</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I18" t="n">
-        <v>59.0</v>
+        <v>31.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="K18" t="s">
         <v>102</v>
@@ -3045,25 +3045,25 @@
         <v>40.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.016712442671523E-4</v>
+        <v>-0.0025735943220531353</v>
       </c>
       <c r="O18" t="n">
-        <v>-7.083173393374557E-4</v>
+        <v>-0.0012562836223740258</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0020375925144477947</v>
+        <v>0.008318574150035118</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.151783254933686E-6</v>
+        <v>6.91986758896325E-5</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S18" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06000000000040018</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="U18" t="s">
         <v>102</v>
@@ -3075,25 +3075,25 @@
         <v>70.0</v>
       </c>
       <c r="X18" t="n">
-        <v>-4.9841437292925096E-5</v>
+        <v>7.182285660985254E-4</v>
       </c>
       <c r="Y18" t="n">
-        <v>-1.6040826386197363E-6</v>
+        <v>4.5351044400793866E-4</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.411120814047706E-4</v>
+        <v>0.0024217515655422517</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.9912619518386608E-8</v>
+        <v>5.864880645206347E-6</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC18" t="n">
-        <v>78.0</v>
+        <v>61.0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.17000000000007276</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AE18" t="s">
         <v>102</v>
@@ -3105,25 +3105,25 @@
         <v>100.0</v>
       </c>
       <c r="AH18" t="n">
-        <v>-2.0205974578857422E-5</v>
+        <v>-5.240369743136379E-5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.0636448860168457E-4</v>
+        <v>4.7789697873920205E-5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3.065400525699147E-4</v>
+        <v>2.007330978237576E-4</v>
       </c>
       <c r="AK18" t="n">
-        <v>9.396680382956605E-8</v>
+        <v>4.029377656192223E-8</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM18" t="n">
-        <v>81.0</v>
+        <v>77.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.35999999999999943</v>
       </c>
       <c r="AO18" t="s">
         <v>102</v>
@@ -3135,25 +3135,25 @@
         <v>200.0</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.3529440977645139E-5</v>
+        <v>1.672208309173584E-4</v>
       </c>
       <c r="AS18" t="n">
-        <v>-6.9290194201242434E-6</v>
+        <v>1.9578635692596436E-4</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.299983437761057E-5</v>
+        <v>7.300369074627611E-4</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.8489857565019396E-9</v>
+        <v>5.32953886257792E-7</v>
       </c>
       <c r="AV18" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW18" t="n">
-        <v>90.0</v>
+        <v>57.0</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.47000000000025466</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="AY18" t="s">
         <v>102</v>
@@ -3170,25 +3170,25 @@
         <v>20.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.005471572279930115</v>
+        <v>5.297809839248657E-4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.021661266684532166</v>
+        <v>-0.007992073893547058</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07643094138753881</v>
+        <v>0.024362043678898715</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005841688801385393</v>
+        <v>5.935091722125688E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0</v>
+        <v>90.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="K19" t="s">
         <v>102</v>
@@ -3200,25 +3200,25 @@
         <v>40.0</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0196063369512558</v>
+        <v>3.232671478797423E-5</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.01603558659553528</v>
+        <v>7.927614999235575E-5</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0886511317100549</v>
+        <v>2.423476007713532E-4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.007859023153473501</v>
+        <v>5.873235959963119E-8</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S19" t="n">
-        <v>49.0</v>
+        <v>84.0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.06999999999970896</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="U19" t="s">
         <v>102</v>
@@ -3230,25 +3230,25 @@
         <v>70.0</v>
       </c>
       <c r="X19" t="n">
-        <v>-4.3536602200708887E-5</v>
+        <v>2.598772667400069E-5</v>
       </c>
       <c r="Y19" t="n">
-        <v>-3.1957240794598574E-5</v>
+        <v>4.614140679182229E-5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.528310884246764E-4</v>
+        <v>1.4985828983782312E-4</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.3357341589071258E-8</v>
+        <v>2.2457507033117E-8</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC19" t="n">
         <v>100.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.5400000000000063</v>
       </c>
       <c r="AE19" t="s">
         <v>102</v>
@@ -3260,25 +3260,25 @@
         <v>100.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.108901261571908E-4</v>
+        <v>-1.3484191681793347E-4</v>
       </c>
       <c r="AI19" t="n">
-        <v>-3.49857002851756E-4</v>
+        <v>3.4061307550366606E-4</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.0010416485646622675</v>
+        <v>0.0010397187143844633</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.0850317322629621E-6</v>
+        <v>1.0810150050412812E-6</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM19" t="n">
-        <v>57.0</v>
+        <v>52.0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.1500000000005457</v>
+        <v>0.269999999999996</v>
       </c>
       <c r="AO19" t="s">
         <v>102</v>
@@ -3290,25 +3290,25 @@
         <v>200.0</v>
       </c>
       <c r="AR19" t="n">
-        <v>-3.351224075479859E-4</v>
+        <v>6.634948399015721E-5</v>
       </c>
       <c r="AS19" t="n">
-        <v>6.641574428195242E-4</v>
+        <v>3.7982978039610186E-5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.002118850731733346</v>
+        <v>2.163955205247703E-4</v>
       </c>
       <c r="AU19" t="n">
-        <v>4.489528423366936E-6</v>
+        <v>4.682702130318628E-8</v>
       </c>
       <c r="AV19" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW19" t="n">
-        <v>62.0</v>
+        <v>78.0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.27000000000043656</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="AY19" t="s">
         <v>102</v>
@@ -3325,25 +3325,25 @@
         <v>20.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004599981554238551</v>
+        <v>0.002319812774658203</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04480244646162801</v>
+        <v>6.814002990722656E-4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1805121517485766</v>
+        <v>0.006994290303730111</v>
       </c>
       <c r="G20" t="n">
-        <v>0.032584636928901144</v>
+        <v>4.892009685285305E-5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I20" t="n">
-        <v>48.0</v>
+        <v>65.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03999999999996362</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="K20" t="s">
         <v>102</v>
@@ -3355,25 +3355,25 @@
         <v>40.0</v>
       </c>
       <c r="N20" t="n">
-        <v>-6.546850726726597E-4</v>
+        <v>0.009355252817034266</v>
       </c>
       <c r="O20" t="n">
-        <v>-5.480879959543434E-4</v>
+        <v>0.0019482628107860313</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0024343872773826547</v>
+        <v>0.02945818968145275</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.926241416282534E-6</v>
+        <v>8.677849393084493E-4</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S20" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.07000000000061846</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="U20" t="s">
         <v>102</v>
@@ -3385,25 +3385,25 @@
         <v>70.0</v>
       </c>
       <c r="X20" t="n">
-        <v>3.3795833587646484E-5</v>
+        <v>1.6542766215874033E-4</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.2788176536560059E-4</v>
+        <v>9.161775470420309E-5</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.7461071271494006E-4</v>
+        <v>5.358176325387376E-4</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.4033318608079535E-7</v>
+        <v>2.8710053533941765E-7</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC20" t="n">
         <v>100.0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.27000000000043656</v>
+        <v>0.35999999999999943</v>
       </c>
       <c r="AE20" t="s">
         <v>102</v>
@@ -3415,25 +3415,25 @@
         <v>100.0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.8331408500671387E-4</v>
+        <v>-6.667347168721667E-6</v>
       </c>
       <c r="AI20" t="n">
-        <v>-6.754696369171143E-5</v>
+        <v>-2.8705176540711578E-5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>5.535630035424788E-4</v>
+        <v>8.337494234211817E-5</v>
       </c>
       <c r="AK20" t="n">
-        <v>3.0643199889097037E-7</v>
+        <v>6.95138101055153E-9</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM20" t="n">
-        <v>100.0</v>
+        <v>98.0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.32999999999992724</v>
+        <v>0.3200000000000074</v>
       </c>
       <c r="AO20" t="s">
         <v>102</v>
@@ -3445,25 +3445,25 @@
         <v>200.0</v>
       </c>
       <c r="AR20" t="n">
-        <v>-2.5144397320874798E-5</v>
+        <v>-3.050858369492901E-6</v>
       </c>
       <c r="AS20" t="n">
-        <v>-9.616667965399797E-5</v>
+        <v>-3.1409781913916675E-6</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.8140748530347537E-4</v>
+        <v>1.2385495271161062E-5</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.919017278482571E-8</v>
+        <v>1.5340049311195303E-10</v>
       </c>
       <c r="AV20" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW20" t="n">
-        <v>58.0</v>
+        <v>100.0</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.27999999999974534</v>
+        <v>0.5700000000000074</v>
       </c>
       <c r="AY20" t="s">
         <v>102</v>
@@ -3480,25 +3480,25 @@
         <v>20.0</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02210109622548316</v>
+        <v>-0.003512403442208997</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02798469821032292</v>
+        <v>-0.0018357079110552321</v>
       </c>
       <c r="F21" t="n">
-        <v>0.13443410763398234</v>
+        <v>0.011627767825206803</v>
       </c>
       <c r="G21" t="n">
-        <v>0.018072529295345148</v>
+        <v>1.3520498459691454E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I21" t="n">
-        <v>48.0</v>
+        <v>75.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03999999999996362</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="K21" t="s">
         <v>102</v>
@@ -3510,25 +3510,25 @@
         <v>40.0</v>
       </c>
       <c r="N21" t="n">
-        <v>-9.344244476509065E-4</v>
+        <v>0.01371158391671215</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0038647626909110865</v>
+        <v>-0.003782668697679681</v>
       </c>
       <c r="P21" t="n">
-        <v>0.011667098984240454</v>
+        <v>0.04560977338169181</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.3612119870806463E-4</v>
+        <v>0.0020802514279292827</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S21" t="n">
-        <v>96.0</v>
+        <v>32.0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.17000000000007276</v>
+        <v>0.05999999999999517</v>
       </c>
       <c r="U21" t="s">
         <v>102</v>
@@ -3540,25 +3540,25 @@
         <v>70.0</v>
       </c>
       <c r="X21" t="n">
-        <v>-9.086386064334441E-4</v>
+        <v>-5.424022674560547E-6</v>
       </c>
       <c r="Y21" t="n">
-        <v>-1.894662197054266E-5</v>
+        <v>8.498132228851318E-5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0025925711684351427</v>
+        <v>2.4106573218318772E-4</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.721425263401161E-6</v>
+        <v>5.811268723301639E-8</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC21" t="n">
-        <v>60.0</v>
+        <v>82.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.14000000000032742</v>
+        <v>0.2599999999999909</v>
       </c>
       <c r="AE21" t="s">
         <v>102</v>
@@ -3570,25 +3570,25 @@
         <v>100.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>-3.641843795776367E-5</v>
+        <v>-1.0726054569585905E-4</v>
       </c>
       <c r="AI21" t="n">
-        <v>8.046627044677734E-7</v>
+        <v>2.9008909522858087E-5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.0304733707755531E-4</v>
+        <v>3.1460687532458564E-4</v>
       </c>
       <c r="AK21" t="n">
-        <v>1.0618753678775306E-8</v>
+        <v>9.897748600149937E-8</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM21" t="n">
-        <v>90.0</v>
+        <v>60.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.25</v>
+        <v>0.21000000000000796</v>
       </c>
       <c r="AO21" t="s">
         <v>102</v>
@@ -3600,19 +3600,19 @@
         <v>200.0</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.7242380974303456E-6</v>
+        <v>1.7822961973444277E-6</v>
       </c>
       <c r="AS21" t="n">
-        <v>-8.842830246747269E-6</v>
+        <v>2.7282152187713543E-6</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.7141441393041532E-5</v>
+        <v>9.217543990303056E-6</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.366578408919082E-10</v>
+        <v>8.4963117213172E-11</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW21" t="n">
         <v>100.0</v>
@@ -3635,25 +3635,25 @@
         <v>20.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001623361081257099</v>
+        <v>0.004237566799079181</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.006210965084407837</v>
+        <v>0.0011343787282905224</v>
       </c>
       <c r="F22" t="n">
-        <v>0.019254435880320386</v>
+        <v>0.012920024798876995</v>
       </c>
       <c r="G22" t="n">
-        <v>3.707333010693691E-4</v>
+        <v>1.6692704080359651E-4</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I22" t="n">
-        <v>44.0</v>
+        <v>66.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.05999999999999517</v>
       </c>
       <c r="K22" t="s">
         <v>102</v>
@@ -3665,25 +3665,25 @@
         <v>40.0</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.027105493254291943</v>
+        <v>-2.1874196255784194E-5</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.008100176183524904</v>
+        <v>-0.0010594351672832281</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1011952965961953</v>
+        <v>0.003027074036729971</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.010240488053191938</v>
+        <v>9.163177223844681E-6</v>
       </c>
       <c r="R22" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S22" t="n">
-        <v>55.0</v>
+        <v>100.0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06999999999970896</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -3695,25 +3695,25 @@
         <v>70.0</v>
       </c>
       <c r="X22" t="n">
-        <v>3.424555026334069E-4</v>
+        <v>-1.1848852643476967E-4</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.403195858771231E-5</v>
+        <v>3.1975648795568175E-4</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0010006559330797415</v>
+        <v>9.676014669928179E-4</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.0013122964076882E-6</v>
+        <v>9.362525989266532E-7</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC22" t="n">
-        <v>56.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.11999999999989086</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="AE22" t="s">
         <v>102</v>
@@ -3725,25 +3725,25 @@
         <v>100.0</v>
       </c>
       <c r="AH22" t="n">
-        <v>-5.880743265151978E-4</v>
+        <v>-0.0013116637820992285</v>
       </c>
       <c r="AI22" t="n">
-        <v>-3.8023293018341064E-4</v>
+        <v>-0.0014977231019037876</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.001993797036575984</v>
+        <v>0.005736625022660036</v>
       </c>
       <c r="AK22" t="n">
-        <v>3.975226623059175E-6</v>
+        <v>3.290886665060925E-5</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM22" t="n">
-        <v>38.0</v>
+        <v>53.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AO22" t="s">
         <v>102</v>
@@ -3755,25 +3755,25 @@
         <v>200.0</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.9938401952965484E-6</v>
+        <v>5.535407912397958E-6</v>
       </c>
       <c r="AS22" t="n">
-        <v>-1.6996126223577207E-6</v>
+        <v>-7.028729242353194E-5</v>
       </c>
       <c r="AT22" t="n">
-        <v>7.4104900811278185E-6</v>
+        <v>1.9955040576036254E-4</v>
       </c>
       <c r="AU22" t="n">
-        <v>5.491536324249378E-11</v>
+        <v>3.982036443912533E-8</v>
       </c>
       <c r="AV22" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW22" t="n">
-        <v>100.0</v>
+        <v>81.0</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.6099999999996726</v>
+        <v>0.4100000000000108</v>
       </c>
       <c r="AY22" t="s">
         <v>102</v>
@@ -3790,25 +3790,25 @@
         <v>20.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01535104215145111</v>
+        <v>-0.025516302533261696</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.05635993182659149</v>
+        <v>-8.357239024579435E-4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.25369122588651294</v>
+        <v>0.08947243290680618</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06435923809180173</v>
+        <v>0.008005316250262932</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I23" t="n">
-        <v>93.0</v>
+        <v>57.0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08999999999923602</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="K23" t="s">
         <v>102</v>
@@ -3820,25 +3820,25 @@
         <v>40.0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.003124566802834579</v>
+        <v>0.0031659703941078424</v>
       </c>
       <c r="O23" t="n">
-        <v>1.6528656624294202E-4</v>
+        <v>-2.623380586596934E-4</v>
       </c>
       <c r="P23" t="n">
-        <v>0.009110643249950812</v>
+        <v>0.009254122331078918</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.300382042787428E-5</v>
+        <v>8.563878011857351E-5</v>
       </c>
       <c r="R23" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S23" t="n">
-        <v>56.0</v>
+        <v>61.0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="U23" t="s">
         <v>102</v>
@@ -3850,25 +3850,25 @@
         <v>70.0</v>
       </c>
       <c r="X23" t="n">
-        <v>-7.472800865929775E-5</v>
+        <v>1.4971734816410692E-4</v>
       </c>
       <c r="Y23" t="n">
-        <v>-1.3232024330154553E-4</v>
+        <v>-1.476983916159682E-4</v>
       </c>
       <c r="Z23" t="n">
-        <v>4.3043276781773443E-4</v>
+        <v>5.960229597725686E-4</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.8527236761123568E-7</v>
+        <v>3.552433685760529E-7</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC23" t="n">
-        <v>79.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.25</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AE23" t="s">
         <v>102</v>
@@ -3880,25 +3880,25 @@
         <v>100.0</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.5740327227288955E-5</v>
+        <v>2.0763278007507324E-4</v>
       </c>
       <c r="AI23" t="n">
-        <v>8.68659807985914E-6</v>
+        <v>7.27623701095581E-5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>5.0858573249712435E-5</v>
+        <v>6.235655328516998E-4</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.586594472996365E-9</v>
+        <v>3.888339737606243E-7</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM23" t="n">
-        <v>100.0</v>
+        <v>72.0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.27999999999974534</v>
+        <v>0.23000000000000398</v>
       </c>
       <c r="AO23" t="s">
         <v>102</v>
@@ -3910,25 +3910,25 @@
         <v>200.0</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.956698115826879E-5</v>
+        <v>9.438512035710171E-5</v>
       </c>
       <c r="AS23" t="n">
-        <v>4.056755421373169E-5</v>
+        <v>-6.133586819766595E-5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.274461122733328E-4</v>
+        <v>3.187162880742278E-4</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.624251153358695E-8</v>
+        <v>1.0158007228381416E-7</v>
       </c>
       <c r="AV23" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW23" t="n">
-        <v>66.0</v>
+        <v>61.0</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.3099999999994907</v>
+        <v>0.3400000000000034</v>
       </c>
       <c r="AY23" t="s">
         <v>102</v>
@@ -3945,25 +3945,25 @@
         <v>20.0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0019807368516921997</v>
+        <v>-0.0012464076280593872</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07419531047344208</v>
+        <v>-0.0010959655046463013</v>
       </c>
       <c r="F24" t="n">
-        <v>0.350164643132608</v>
+        <v>0.0047677263457508445</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1226152773001867</v>
+        <v>2.27312145079667E-5</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I24" t="n">
-        <v>78.0</v>
+        <v>46.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="K24" t="s">
         <v>102</v>
@@ -3975,25 +3975,25 @@
         <v>40.0</v>
       </c>
       <c r="N24" t="n">
-        <v>-5.485117435455322E-4</v>
+        <v>0.001079743591591781</v>
       </c>
       <c r="O24" t="n">
-        <v>-7.015764713287354E-4</v>
+        <v>-6.235302353136546E-5</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0025399633690490475</v>
+        <v>0.0030902118896207753</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.451413916110988E-6</v>
+        <v>9.549409522753604E-6</v>
       </c>
       <c r="R24" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S24" t="n">
-        <v>98.0</v>
+        <v>75.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.14000000000032742</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="U24" t="s">
         <v>102</v>
@@ -4005,25 +4005,25 @@
         <v>70.0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.5651347091945652E-5</v>
+        <v>-3.5772156837994356E-5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.18594924353828E-5</v>
+        <v>-4.088612621042972E-4</v>
       </c>
       <c r="Z24" t="n">
-        <v>5.555212462837744E-5</v>
+        <v>0.001165337495574903</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.0860385507267797E-9</v>
+        <v>1.358011478592787E-6</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC24" t="n">
-        <v>98.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.3499999999999943</v>
       </c>
       <c r="AE24" t="s">
         <v>102</v>
@@ -4035,25 +4035,25 @@
         <v>100.0</v>
       </c>
       <c r="AH24" t="n">
-        <v>-9.831786155700684E-5</v>
+        <v>-7.01905385179894E-4</v>
       </c>
       <c r="AI24" t="n">
-        <v>3.403425216674805E-5</v>
+        <v>1.1158347005742005E-4</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2.945742926314665E-4</v>
+        <v>0.0020236685021828293</v>
       </c>
       <c r="AK24" t="n">
-        <v>8.677401387932886E-8</v>
+        <v>4.095234206726896E-6</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM24" t="n">
-        <v>100.0</v>
+        <v>64.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.2899999999999636</v>
+        <v>0.19000000000001194</v>
       </c>
       <c r="AO24" t="s">
         <v>102</v>
@@ -4065,25 +4065,25 @@
         <v>200.0</v>
       </c>
       <c r="AR24" t="n">
-        <v>3.9843808250111416E-7</v>
+        <v>1.5474818297573336E-5</v>
       </c>
       <c r="AS24" t="n">
-        <v>-1.5265837146872833E-6</v>
+        <v>8.4191813843663E-6</v>
       </c>
       <c r="AT24" t="n">
-        <v>4.462541600247505E-6</v>
+        <v>4.983617736442625E-5</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.9914277533939563E-11</v>
+        <v>2.483644574298551E-9</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW24" t="n">
-        <v>100.0</v>
+        <v>88.0</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.5100000000002183</v>
+        <v>0.45999999999999375</v>
       </c>
       <c r="AY24" t="s">
         <v>102</v>
@@ -4100,25 +4100,25 @@
         <v>20.0</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.6472214606231767E-4</v>
+        <v>0.033123033482552064</v>
       </c>
       <c r="E25" t="n">
-        <v>-7.078621244570671E-4</v>
+        <v>-6.041152790817097E-4</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002269156533269978</v>
+        <v>0.12266280878833413</v>
       </c>
       <c r="G25" t="n">
-        <v>5.149071372481826E-6</v>
+        <v>0.015046164659843422</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I25" t="n">
-        <v>56.0</v>
+        <v>68.0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06000000000040018</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="K25" t="s">
         <v>102</v>
@@ -4130,25 +4130,25 @@
         <v>40.0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.4526698066994254E-4</v>
+        <v>0.023372069001197815</v>
       </c>
       <c r="O25" t="n">
-        <v>6.679393694581975E-4</v>
+        <v>0.0025537461042404175</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0019458234280769204</v>
+        <v>0.08115271436616212</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.7862288132530186E-6</v>
+        <v>0.006585763048995895</v>
       </c>
       <c r="R25" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S25" t="n">
-        <v>100.0</v>
+        <v>38.0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.14000000000032742</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="U25" t="s">
         <v>102</v>
@@ -4160,25 +4160,25 @@
         <v>70.0</v>
       </c>
       <c r="X25" t="n">
-        <v>-7.055868355244551E-4</v>
+        <v>-4.158578627376372E-5</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.4421756501631033E-4</v>
+        <v>1.5469877029628397E-4</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0020507722278466645</v>
+        <v>4.537712702052943E-4</v>
       </c>
       <c r="AA25" t="n">
-        <v>4.205666730507172E-6</v>
+        <v>2.059083656637262E-7</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC25" t="n">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.27999999999974534</v>
+        <v>0.38999999999998636</v>
       </c>
       <c r="AE25" t="s">
         <v>102</v>
@@ -4190,25 +4190,25 @@
         <v>100.0</v>
       </c>
       <c r="AH25" t="n">
-        <v>3.0120079711535674E-5</v>
+        <v>9.156763553619385E-5</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.946217835414627E-4</v>
+        <v>1.4665722846984863E-4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5.580595831879975E-4</v>
+        <v>4.898023255002215E-4</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.1143049838796156E-7</v>
+        <v>2.3990631806542495E-7</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM25" t="n">
-        <v>58.0</v>
+        <v>80.0</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.17999999999938154</v>
+        <v>0.25</v>
       </c>
       <c r="AO25" t="s">
         <v>102</v>
@@ -4220,25 +4220,25 @@
         <v>200.0</v>
       </c>
       <c r="AR25" t="n">
-        <v>7.187127376864972E-5</v>
+        <v>-7.572415705576825E-5</v>
       </c>
       <c r="AS25" t="n">
-        <v>-1.5444171974933E-4</v>
+        <v>-1.0930167774889825E-5</v>
       </c>
       <c r="AT25" t="n">
-        <v>4.825836515394144E-4</v>
+        <v>2.165558080911012E-4</v>
       </c>
       <c r="AU25" t="n">
-        <v>2.3288698073311495E-7</v>
+        <v>4.6896418017989854E-8</v>
       </c>
       <c r="AV25" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW25" t="n">
-        <v>58.0</v>
+        <v>79.0</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.27999999999974534</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AY25" t="s">
         <v>102</v>
@@ -4255,25 +4255,25 @@
         <v>20.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.018374532461166382</v>
+        <v>-0.0028111934661865234</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.03732810914516449</v>
+        <v>-0.0018346905708312988</v>
       </c>
       <c r="F26" t="n">
-        <v>0.16320011766901033</v>
+        <v>0.009794823933212626</v>
       </c>
       <c r="G26" t="n">
-        <v>0.026634278407178816</v>
+        <v>9.593857588263486E-5</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I26" t="n">
-        <v>42.0</v>
+        <v>66.0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="K26" t="s">
         <v>102</v>
@@ -4285,25 +4285,25 @@
         <v>40.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.6161799430847168E-4</v>
+        <v>1.4528966131519905E-4</v>
       </c>
       <c r="O26" t="n">
-        <v>-2.2664666175842285E-5</v>
+        <v>-4.4038940294370197E-4</v>
       </c>
       <c r="P26" t="n">
-        <v>4.623028733448109E-4</v>
+        <v>0.0013173724976880408</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1372394670286826E-7</v>
+        <v>1.735470297664827E-6</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S26" t="n">
-        <v>84.0</v>
+        <v>73.0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.15999999999985448</v>
+        <v>0.14999999999999858</v>
       </c>
       <c r="U26" t="s">
         <v>102</v>
@@ -4315,25 +4315,25 @@
         <v>70.0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.24746607307898E-5</v>
+        <v>2.5853514671325684E-5</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.92026318452043E-5</v>
+        <v>-5.3435564041137695E-5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.990210115927482E-4</v>
+        <v>1.6800910218961462E-4</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.960936305540082E-8</v>
+        <v>2.822705841856037E-8</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC26" t="n">
-        <v>84.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.25</v>
+        <v>0.4299999999999926</v>
       </c>
       <c r="AE26" t="s">
         <v>102</v>
@@ -4345,25 +4345,25 @@
         <v>100.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.608442838628028E-4</v>
+        <v>2.1748404756570805E-5</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.0012867308188992093</v>
+        <v>1.586909747061729E-5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.004610826941949142</v>
+        <v>7.616764886364535E-5</v>
       </c>
       <c r="AK26" t="n">
-        <v>2.125972508860408E-5</v>
+        <v>5.8015107334155755E-9</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM26" t="n">
-        <v>60.0</v>
+        <v>81.0</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.18999999999959982</v>
+        <v>0.22000000000001307</v>
       </c>
       <c r="AO26" t="s">
         <v>102</v>
@@ -4375,25 +4375,25 @@
         <v>200.0</v>
       </c>
       <c r="AR26" t="n">
-        <v>6.36564686631081E-4</v>
+        <v>-5.617737770080566E-6</v>
       </c>
       <c r="AS26" t="n">
-        <v>4.214776128022074E-4</v>
+        <v>1.296401023864746E-6</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.002174887031390682</v>
+        <v>1.632011144891976E-5</v>
       </c>
       <c r="AU26" t="n">
-        <v>4.730133599311374E-6</v>
+        <v>2.6634603770516183E-10</v>
       </c>
       <c r="AV26" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW26" t="n">
-        <v>44.0</v>
+        <v>100.0</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.21000000000003638</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="AY26" t="s">
         <v>102</v>
@@ -4410,25 +4410,25 @@
         <v>20.0</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.9120368980582955E-4</v>
+        <v>0.020693674683570862</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.006177309321958094</v>
+        <v>-0.0010348260402679443</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01852694126492338</v>
+        <v>0.06999482623108477</v>
       </c>
       <c r="G27" t="n">
-        <v>3.4324755263392075E-4</v>
+        <v>0.004899275699119753</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I27" t="n">
-        <v>74.0</v>
+        <v>81.0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0999999999994543</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="K27" t="s">
         <v>102</v>
@@ -4440,25 +4440,25 @@
         <v>40.0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0016425549983978271</v>
+        <v>2.435445785522461E-4</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.0014171898365020752</v>
+        <v>-6.094574928283691E-6</v>
       </c>
       <c r="P27" t="n">
-        <v>0.006261413130168592</v>
+        <v>6.906539764379716E-4</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.920529438664764E-5</v>
+        <v>4.770029151695822E-7</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S27" t="n">
-        <v>48.0</v>
+        <v>62.0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.06000000000040018</v>
+        <v>0.13000000000000256</v>
       </c>
       <c r="U27" t="s">
         <v>102</v>
@@ -4470,25 +4470,25 @@
         <v>70.0</v>
       </c>
       <c r="X27" t="n">
-        <v>5.6656692111000314E-5</v>
+        <v>6.170361955653821E-8</v>
       </c>
       <c r="Y27" t="n">
-        <v>-2.3623013610329376E-5</v>
+        <v>-7.433122260746598E-6</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.7372124605685713E-4</v>
+        <v>2.1026240343502423E-5</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.01790713315471E-8</v>
+        <v>4.421027829827289E-10</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC27" t="n">
         <v>100.0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.35999999999999943</v>
       </c>
       <c r="AE27" t="s">
         <v>102</v>
@@ -4500,25 +4500,25 @@
         <v>100.0</v>
       </c>
       <c r="AH27" t="n">
-        <v>-2.3574542874235573E-4</v>
+        <v>1.7171881455631336E-4</v>
       </c>
       <c r="AI27" t="n">
-        <v>-5.619127060696377E-4</v>
+        <v>7.891630733708132E-5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.0017334230955441399</v>
+        <v>5.354798735446309E-4</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.0047556281658283E-6</v>
+        <v>2.867386949713739E-7</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM27" t="n">
-        <v>54.0</v>
+        <v>87.0</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.16999999999916326</v>
+        <v>0.30000000000001137</v>
       </c>
       <c r="AO27" t="s">
         <v>102</v>
@@ -4530,25 +4530,25 @@
         <v>200.0</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.562999725341797E-6</v>
+        <v>-3.319933840012737E-6</v>
       </c>
       <c r="AS27" t="n">
-        <v>-2.473592758178711E-6</v>
+        <v>-9.804245365994188E-6</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.0063020621231544E-5</v>
+        <v>2.928017373093894E-5</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.0126438402333129E-10</v>
+        <v>8.573285737139668E-10</v>
       </c>
       <c r="AV27" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW27" t="n">
         <v>100.0</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.5300000000006548</v>
+        <v>0.46999999999999886</v>
       </c>
       <c r="AY27" t="s">
         <v>102</v>
@@ -4565,25 +4565,25 @@
         <v>20.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03311169147491455</v>
+        <v>0.03263409192328098</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001039952039718628</v>
+        <v>0.00772213369362758</v>
       </c>
       <c r="F28" t="n">
-        <v>0.12266057388348983</v>
+        <v>0.12453313026570356</v>
       </c>
       <c r="G28" t="n">
-        <v>0.015045616385427068</v>
+        <v>0.015508500533774693</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I28" t="n">
         <v>54.0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03999999999996362</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="K28" t="s">
         <v>102</v>
@@ -4595,25 +4595,25 @@
         <v>40.0</v>
       </c>
       <c r="N28" t="n">
-        <v>6.12980768073727E-4</v>
+        <v>0.001197664717179695</v>
       </c>
       <c r="O28" t="n">
-        <v>0.00223243013556046</v>
+        <v>2.602437281645151E-4</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00669067907977805</v>
+        <v>0.003506556193965338</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.476518654857966E-5</v>
+        <v>1.2295936341436676E-5</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S28" t="n">
-        <v>50.0</v>
+        <v>38.0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.13000000000000256</v>
       </c>
       <c r="U28" t="s">
         <v>102</v>
@@ -4625,25 +4625,25 @@
         <v>70.0</v>
       </c>
       <c r="X28" t="n">
-        <v>-4.110450687824912E-8</v>
+        <v>1.2194492244621275E-4</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.8067673504745244E-8</v>
+        <v>3.229095231204704E-5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.2699678464400677E-7</v>
+        <v>3.5722362899548443E-4</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.6128183309916233E-14</v>
+        <v>1.276087211127035E-7</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC28" t="n">
-        <v>100.0</v>
+        <v>66.0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.18999999999959982</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="AE28" t="s">
         <v>102</v>
@@ -4655,25 +4655,25 @@
         <v>100.0</v>
       </c>
       <c r="AH28" t="n">
-        <v>-8.211909679399021E-6</v>
+        <v>3.416296448127627E-5</v>
       </c>
       <c r="AI28" t="n">
-        <v>4.53798438022046E-5</v>
+        <v>3.771187160572199E-5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.3049483786531368E-4</v>
+        <v>1.4399374574125545E-4</v>
       </c>
       <c r="AK28" t="n">
-        <v>1.7028902709494505E-8</v>
+        <v>2.073419881259732E-8</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM28" t="n">
-        <v>100.0</v>
+        <v>85.0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.36999999999989086</v>
+        <v>0.269999999999996</v>
       </c>
       <c r="AO28" t="s">
         <v>102</v>
@@ -4685,25 +4685,25 @@
         <v>200.0</v>
       </c>
       <c r="AR28" t="n">
-        <v>-8.315343594597548E-5</v>
+        <v>4.86764110068816E-5</v>
       </c>
       <c r="AS28" t="n">
-        <v>-7.907709314587795E-5</v>
+        <v>6.558630972967107E-5</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.2491410149404487E-4</v>
+        <v>2.311920433761827E-4</v>
       </c>
       <c r="AU28" t="n">
-        <v>1.055691733496825E-7</v>
+        <v>5.344976092045475E-8</v>
       </c>
       <c r="AV28" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW28" t="n">
         <v>57.0</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.32999999999992724</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="AY28" t="s">
         <v>102</v>
@@ -4720,25 +4720,25 @@
         <v>20.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002122016062316757</v>
+        <v>-0.04440777003765106</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.01860741797943467</v>
+        <v>-0.010038971900939941</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06228371479178918</v>
+        <v>0.1830692717227116</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0038792611282649383</v>
+        <v>0.03351435824908401</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I29" t="n">
-        <v>84.0</v>
+        <v>42.0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.05999999999999517</v>
       </c>
       <c r="K29" t="s">
         <v>102</v>
@@ -4750,25 +4750,25 @@
         <v>40.0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.7752311090608363E-4</v>
+        <v>-0.004066288471221924</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.006953171577887661</v>
+        <v>-1.1833012104034424E-4</v>
       </c>
       <c r="P29" t="n">
-        <v>0.020986177593290023</v>
+        <v>0.011946655190907762</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.404196499771082E-4</v>
+        <v>1.4272257025044338E-4</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S29" t="n">
-        <v>93.0</v>
+        <v>68.0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.13999999999941792</v>
+        <v>0.11000000000000654</v>
       </c>
       <c r="U29" t="s">
         <v>102</v>
@@ -4780,25 +4780,25 @@
         <v>70.0</v>
       </c>
       <c r="X29" t="n">
-        <v>5.831867456436157E-4</v>
+        <v>1.0538101196289062E-4</v>
       </c>
       <c r="Y29" t="n">
-        <v>-2.9127299785614014E-4</v>
+        <v>-3.08305025100708E-5</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.001855112557528571</v>
+        <v>3.1087268651575073E-4</v>
       </c>
       <c r="AA29" t="n">
-        <v>3.4414426011001956E-6</v>
+        <v>9.664182722152022E-8</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC29" t="n">
-        <v>100.0</v>
+        <v>54.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.27999999999974534</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AE29" t="s">
         <v>102</v>
@@ -4810,25 +4810,25 @@
         <v>100.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>-7.119591520328406E-5</v>
+        <v>-3.434987231695559E-5</v>
       </c>
       <c r="AI29" t="n">
-        <v>1.0605784106195544E-4</v>
+        <v>-1.7847061348497832E-5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3.617335322836368E-4</v>
+        <v>1.0952711745559895E-4</v>
       </c>
       <c r="AK29" t="n">
-        <v>1.308511483783969E-7</v>
+        <v>1.1996189458132569E-8</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM29" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.13999999999941792</v>
+        <v>0.29000000000000625</v>
       </c>
       <c r="AO29" t="s">
         <v>102</v>
@@ -4840,25 +4840,25 @@
         <v>200.0</v>
       </c>
       <c r="AR29" t="n">
-        <v>-5.928575799186032E-5</v>
+        <v>2.6045945613742387E-7</v>
       </c>
       <c r="AS29" t="n">
-        <v>-7.714040390001803E-7</v>
+        <v>-6.6231231773127464E-6</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.6779324944593554E-4</v>
+        <v>1.8748670992607686E-5</v>
       </c>
       <c r="AU29" t="n">
-        <v>2.815457455962595E-8</v>
+        <v>3.5151266398904885E-10</v>
       </c>
       <c r="AV29" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW29" t="n">
         <v>100.0</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.5099999999993088</v>
+        <v>0.5599999999999881</v>
       </c>
       <c r="AY29" t="s">
         <v>102</v>
@@ -4875,25 +4875,25 @@
         <v>20.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0013925880193710327</v>
+        <v>-0.006409138441085815</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.654560565948486E-4</v>
+        <v>-0.00861959159374237</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004428860261281642</v>
+        <v>0.033450685937513214</v>
       </c>
       <c r="G30" t="n">
-        <v>1.9614803213959695E-5</v>
+        <v>0.0011189483896901443</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I30" t="n">
-        <v>71.0</v>
+        <v>89.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07000000000061846</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="K30" t="s">
         <v>102</v>
@@ -4905,25 +4905,25 @@
         <v>40.0</v>
       </c>
       <c r="N30" t="n">
-        <v>4.042714324763053E-4</v>
+        <v>-5.463828139910676E-6</v>
       </c>
       <c r="O30" t="n">
-        <v>6.22233185428825E-5</v>
+        <v>-2.043050079381962E-5</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0011613721598919824</v>
+        <v>5.982888265521069E-5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.3487852937721684E-6</v>
+        <v>3.5794951997709707E-9</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S30" t="n">
-        <v>69.0</v>
+        <v>100.0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="U30" t="s">
         <v>102</v>
@@ -4935,25 +4935,25 @@
         <v>70.0</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.004123933375279939</v>
+        <v>-1.1026509651525219E-5</v>
       </c>
       <c r="Y30" t="n">
-        <v>-1.3813664382681876E-4</v>
+        <v>-2.3401270350649286E-4</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.012124095734737494</v>
+        <v>6.640836993874188E-4</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.469936973850799E-4</v>
+        <v>4.410071597920797E-7</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC30" t="n">
-        <v>36.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.45999999999999375</v>
       </c>
       <c r="AE30" t="s">
         <v>102</v>
@@ -4965,25 +4965,25 @@
         <v>100.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.17365582925517E-5</v>
+        <v>1.2235861335115408E-5</v>
       </c>
       <c r="AI30" t="n">
-        <v>1.574734671822743E-4</v>
+        <v>-1.3000527194823204E-4</v>
       </c>
       <c r="AJ30" t="n">
-        <v>5.163530541345551E-4</v>
+        <v>3.697895218834901E-4</v>
       </c>
       <c r="AK30" t="n">
-        <v>2.666204765140828E-7</v>
+        <v>1.3674429049482023E-7</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM30" t="n">
-        <v>84.0</v>
+        <v>52.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.21999999999934516</v>
+        <v>0.20999999999999375</v>
       </c>
       <c r="AO30" t="s">
         <v>102</v>
@@ -4995,25 +4995,25 @@
         <v>200.0</v>
       </c>
       <c r="AR30" t="n">
-        <v>-8.118478336181857E-5</v>
+        <v>2.4437904357910156E-5</v>
       </c>
       <c r="AS30" t="n">
-        <v>-1.7305932817955895E-4</v>
+        <v>1.4290213584899902E-5</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.416429692886027E-4</v>
+        <v>8.00962979461417E-5</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.933771061797742E-7</v>
+        <v>6.415416944677104E-9</v>
       </c>
       <c r="AV30" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW30" t="n">
-        <v>49.0</v>
+        <v>76.0</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.3099999999994907</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AY30" t="s">
         <v>102</v>
@@ -5030,25 +5030,25 @@
         <v>20.0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.07953479975928168</v>
+        <v>-0.08068657067379398</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0015923565619898727</v>
+        <v>-0.04285655915737152</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3850350665770357</v>
+        <v>0.4680170500295766</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1482520024939823</v>
+        <v>0.21903995911838722</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I31" t="n">
-        <v>61.0</v>
+        <v>27.0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05999999999949068</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="K31" t="s">
         <v>102</v>
@@ -5060,25 +5060,25 @@
         <v>40.0</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0016925247111002906</v>
+        <v>-1.0419644979126758E-5</v>
       </c>
       <c r="O31" t="n">
-        <v>-2.554563180668795E-4</v>
+        <v>0.0039807753057844765</v>
       </c>
       <c r="P31" t="n">
-        <v>0.004919419539135106</v>
+        <v>0.011681287828849918</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.4200688602024257E-5</v>
+        <v>1.3645248534043723E-4</v>
       </c>
       <c r="R31" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S31" t="n">
-        <v>39.0</v>
+        <v>46.0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.05999999999949068</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="U31" t="s">
         <v>102</v>
@@ -5090,25 +5090,25 @@
         <v>70.0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.0162591934204102E-4</v>
+        <v>4.075610341653735E-5</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.0535120964050293E-5</v>
+        <v>1.2971531578139927E-4</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.8923972084982097E-4</v>
+        <v>3.850660522779492E-4</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.365961611728236E-8</v>
+        <v>1.482758646169243E-7</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC31" t="n">
-        <v>100.0</v>
+        <v>61.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.20999999999999375</v>
       </c>
       <c r="AE31" t="s">
         <v>102</v>
@@ -5120,25 +5120,25 @@
         <v>100.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>-1.2746453285217285E-4</v>
+        <v>-1.7161917577570052E-4</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.4068186283111572E-4</v>
+        <v>4.659083393783407E-5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5.379005924339708E-4</v>
+        <v>5.038239779899811E-4</v>
       </c>
       <c r="AK31" t="n">
-        <v>2.893370473408168E-7</v>
+        <v>2.5383860079764897E-7</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM31" t="n">
-        <v>56.0</v>
+        <v>92.0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.17000000000007276</v>
+        <v>0.269999999999996</v>
       </c>
       <c r="AO31" t="s">
         <v>102</v>
@@ -5150,25 +5150,25 @@
         <v>200.0</v>
       </c>
       <c r="AR31" t="n">
-        <v>8.38654866481139E-6</v>
+        <v>1.9265497463063298E-4</v>
       </c>
       <c r="AS31" t="n">
-        <v>-1.9105333686629798E-5</v>
+        <v>-1.5655626134177995E-4</v>
       </c>
       <c r="AT31" t="n">
-        <v>5.9026707532439104E-5</v>
+        <v>7.037851512663451E-4</v>
       </c>
       <c r="AU31" t="n">
-        <v>3.4841522021201033E-9</v>
+        <v>4.953135391429922E-7</v>
       </c>
       <c r="AV31" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW31" t="n">
-        <v>87.0</v>
+        <v>69.0</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="AY31" t="s">
         <v>102</v>
@@ -5185,25 +5185,25 @@
         <v>20.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.049123571976715116</v>
+        <v>-9.239788278694961E-5</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.051316410664157874</v>
+        <v>0.06490361356083826</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3309268859231622</v>
+        <v>0.2919379218194358</v>
       </c>
       <c r="G32" t="n">
-        <v>0.10951260382680161</v>
+        <v>0.085227750196251</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I32" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.11999999999999744</v>
       </c>
       <c r="K32" t="s">
         <v>102</v>
@@ -5215,25 +5215,25 @@
         <v>40.0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0026970505714416504</v>
+        <v>-9.785592555999756E-4</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0017093122005462646</v>
+        <v>4.813075065612793E-6</v>
       </c>
       <c r="P32" t="n">
-        <v>0.009302898312448349</v>
+        <v>0.0027933332106293562</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.654391701175433E-5</v>
+        <v>7.802710425604908E-6</v>
       </c>
       <c r="R32" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S32" t="n">
-        <v>56.0</v>
+        <v>100.0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="U32" t="s">
         <v>102</v>
@@ -5245,25 +5245,25 @@
         <v>70.0</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.0029498272528484452</v>
+        <v>-8.815296190950748E-5</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.0016966212204234505</v>
+        <v>-6.809253307378327E-5</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.009933301159787078</v>
+        <v>3.1538642242878723E-4</v>
       </c>
       <c r="AA32" t="n">
-        <v>9.867047193102731E-5</v>
+        <v>9.946859545242943E-8</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC32" t="n">
-        <v>52.0</v>
+        <v>90.0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.4399999999999977</v>
       </c>
       <c r="AE32" t="s">
         <v>102</v>
@@ -5275,25 +5275,25 @@
         <v>100.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>1.1740413509380484E-5</v>
+        <v>-3.3072511095289176E-4</v>
       </c>
       <c r="AI32" t="n">
-        <v>-4.637079413934278E-5</v>
+        <v>-3.2715769614866195E-6</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1.3535580180601414E-4</v>
+        <v>9.383905109778823E-4</v>
       </c>
       <c r="AK32" t="n">
-        <v>1.832119308254898E-8</v>
+        <v>8.80576751093331E-7</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM32" t="n">
-        <v>100.0</v>
+        <v>97.0</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.32999999999992724</v>
+        <v>0.269999999999996</v>
       </c>
       <c r="AO32" t="s">
         <v>102</v>
@@ -5305,25 +5305,25 @@
         <v>200.0</v>
       </c>
       <c r="AR32" t="n">
-        <v>-3.676030425440727E-5</v>
+        <v>1.544433118467636E-5</v>
       </c>
       <c r="AS32" t="n">
-        <v>-3.2282177468977814E-5</v>
+        <v>-1.8911531270384302E-5</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.3843884585540422E-4</v>
+        <v>6.907662407229509E-5</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.916531404177637E-8</v>
+        <v>4.771579993225177E-9</v>
       </c>
       <c r="AV32" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW32" t="n">
-        <v>68.0</v>
+        <v>95.0</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.3400000000001455</v>
+        <v>0.5100000000000051</v>
       </c>
       <c r="AY32" t="s">
         <v>102</v>
@@ -5340,25 +5340,25 @@
         <v>20.0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001643316954168484</v>
+        <v>0.0029736608266830444</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0016333896959841135</v>
+        <v>-0.012997224926948547</v>
       </c>
       <c r="F33" t="n">
-        <v>0.006696391526112677</v>
+        <v>0.042438647400889096</v>
       </c>
       <c r="G33" t="n">
-        <v>4.484165947099367E-5</v>
+        <v>0.0018010387932169908</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I33" t="n">
-        <v>63.0</v>
+        <v>80.0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.07000000000061846</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="K33" t="s">
         <v>102</v>
@@ -5370,25 +5370,25 @@
         <v>40.0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0038040578365325928</v>
+        <v>-2.3023901185234827E-5</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.0026504993438720703</v>
+        <v>2.5923544884425855E-4</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01368597173347652</v>
+        <v>7.379183840257042E-4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8730582228951832E-4</v>
+        <v>5.445235414831066E-7</v>
       </c>
       <c r="R33" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S33" t="n">
-        <v>63.0</v>
+        <v>100.0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="U33" t="s">
         <v>102</v>
@@ -5400,25 +5400,25 @@
         <v>70.0</v>
       </c>
       <c r="X33" t="n">
-        <v>4.667086643123271E-5</v>
+        <v>4.001704690137191E-5</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.0010945610440741566</v>
+        <v>-2.349907774354542E-5</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.003130659325009333</v>
+        <v>1.313149766275501E-4</v>
       </c>
       <c r="AA33" t="n">
-        <v>9.801027809267892E-6</v>
+        <v>1.7243623086694028E-8</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC33" t="n">
-        <v>42.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.09000000000014552</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="AE33" t="s">
         <v>102</v>
@@ -5430,25 +5430,25 @@
         <v>100.0</v>
       </c>
       <c r="AH33" t="n">
-        <v>-6.027966737747192E-4</v>
+        <v>-1.574963346937724E-4</v>
       </c>
       <c r="AI33" t="n">
-        <v>-1.755356788635254E-4</v>
+        <v>2.541862883280536E-5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.0017862692257217816</v>
+        <v>4.519089473404847E-4</v>
       </c>
       <c r="AK33" t="n">
-        <v>3.190757746760693E-6</v>
+        <v>2.0422169668638497E-7</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM33" t="n">
-        <v>56.0</v>
+        <v>71.0</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.16999999999916326</v>
+        <v>0.23000000000000398</v>
       </c>
       <c r="AO33" t="s">
         <v>102</v>
@@ -5460,25 +5460,25 @@
         <v>200.0</v>
       </c>
       <c r="AR33" t="n">
-        <v>-3.463678365238949E-6</v>
+        <v>-1.953504929091961E-5</v>
       </c>
       <c r="AS33" t="n">
-        <v>4.462745729711464E-6</v>
+        <v>9.680700104020373E-6</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.5979126864351656E-5</v>
+        <v>6.167847320526221E-5</v>
       </c>
       <c r="AU33" t="n">
-        <v>2.553324953470448E-10</v>
+        <v>3.804234056932248E-9</v>
       </c>
       <c r="AV33" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW33" t="n">
         <v>100.0</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.5200000000004366</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="AY33" t="s">
         <v>102</v>
@@ -5495,25 +5495,25 @@
         <v>20.0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.001691764279775345</v>
+        <v>4.551410675048828E-4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05044704763516292</v>
+        <v>-0.004296779632568359</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2092022344236355</v>
+        <v>0.012718167627902233</v>
       </c>
       <c r="G34" t="n">
-        <v>0.043765574887841746</v>
+        <v>1.617517878114203E-4</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I34" t="n">
-        <v>42.0</v>
+        <v>100.0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.11999999999999744</v>
       </c>
       <c r="K34" t="s">
         <v>102</v>
@@ -5525,25 +5525,25 @@
         <v>40.0</v>
       </c>
       <c r="N34" t="n">
-        <v>2.2316101952390274E-4</v>
+        <v>-0.001380134094708805</v>
       </c>
       <c r="O34" t="n">
-        <v>3.3591481441475876E-5</v>
+        <v>0.00808421590104189</v>
       </c>
       <c r="P34" t="n">
-        <v>6.396615949135764E-4</v>
+        <v>0.02498646878115096</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.0916695600738033E-7</v>
+        <v>6.243236221514316E-4</v>
       </c>
       <c r="R34" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S34" t="n">
-        <v>76.0</v>
+        <v>57.0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.14000000000032742</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="U34" t="s">
         <v>102</v>
@@ -5555,25 +5555,25 @@
         <v>70.0</v>
       </c>
       <c r="X34" t="n">
-        <v>-4.5739199870254594E-5</v>
+        <v>3.249617806123532E-4</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.632765255865474E-7</v>
+        <v>9.685064056880301E-4</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.294278470709287E-4</v>
+        <v>0.002917224955933051</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.6751567597415704E-8</v>
+        <v>8.51020144351859E-6</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC34" t="n">
-        <v>100.0</v>
+        <v>51.0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.2000000000007276</v>
+        <v>0.18999999999999773</v>
       </c>
       <c r="AE34" t="s">
         <v>102</v>
@@ -5585,25 +5585,25 @@
         <v>100.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.7695128917694092E-4</v>
+        <v>7.521111005983689E-5</v>
       </c>
       <c r="AI34" t="n">
-        <v>-2.7310848236083984E-4</v>
+        <v>1.700894997466706E-4</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9.232617822014788E-4</v>
+        <v>5.269411432031745E-4</v>
       </c>
       <c r="AK34" t="n">
-        <v>8.524123184738509E-7</v>
+        <v>2.776669684002685E-7</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM34" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.21000000000003638</v>
+        <v>0.480000000000004</v>
       </c>
       <c r="AO34" t="s">
         <v>102</v>
@@ -5615,25 +5615,25 @@
         <v>200.0</v>
       </c>
       <c r="AR34" t="n">
-        <v>-2.3927022186593806E-5</v>
+        <v>1.1479112592416573E-4</v>
       </c>
       <c r="AS34" t="n">
-        <v>-5.186131016831512E-6</v>
+        <v>3.6871116521140955E-6</v>
       </c>
       <c r="AT34" t="n">
-        <v>6.926324805789363E-5</v>
+        <v>3.251970213895561E-4</v>
       </c>
       <c r="AU34" t="n">
-        <v>4.797397531529306E-9</v>
+        <v>1.057531027206394E-7</v>
       </c>
       <c r="AV34" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW34" t="n">
-        <v>100.0</v>
+        <v>66.0</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.5799999999999272</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="AY34" t="s">
         <v>102</v>
@@ -5650,25 +5650,25 @@
         <v>20.0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00954999029636383</v>
+        <v>0.06281960010528564</v>
       </c>
       <c r="E35" t="n">
-        <v>0.012091517448425293</v>
+        <v>-9.527355432510376E-4</v>
       </c>
       <c r="F35" t="n">
-        <v>0.049892180132015795</v>
+        <v>0.27945942996691286</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0024892296383255117</v>
+        <v>0.07809757299743188</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I35" t="n">
-        <v>34.0</v>
+        <v>76.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.11999999999999744</v>
       </c>
       <c r="K35" t="s">
         <v>102</v>
@@ -5680,25 +5680,25 @@
         <v>40.0</v>
       </c>
       <c r="N35" t="n">
-        <v>4.58770698027607E-5</v>
+        <v>2.8929336193158316E-4</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.709826649637498E-4</v>
+        <v>8.571749452829291E-4</v>
       </c>
       <c r="P35" t="n">
-        <v>5.015522298315034E-4</v>
+        <v>0.0025806050770249556</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.515546392489532E-7</v>
+        <v>6.659522563566977E-6</v>
       </c>
       <c r="R35" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S35" t="n">
-        <v>100.0</v>
+        <v>63.0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.17000000000007276</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="U35" t="s">
         <v>102</v>
@@ -5710,25 +5710,25 @@
         <v>70.0</v>
       </c>
       <c r="X35" t="n">
-        <v>5.1213015531811174E-5</v>
+        <v>3.6484429933527143E-4</v>
       </c>
       <c r="Y35" t="n">
-        <v>-1.1889744092934276E-4</v>
+        <v>2.0167026948722972E-4</v>
       </c>
       <c r="Z35" t="n">
-        <v>3.6660880060068735E-4</v>
+        <v>0.0011837195913315668</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.3440201267787454E-7</v>
+        <v>1.4011920709021715E-6</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC35" t="n">
-        <v>73.0</v>
+        <v>42.0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.1500000000005457</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="AE35" t="s">
         <v>102</v>
@@ -5740,25 +5740,25 @@
         <v>100.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>-9.612793719237203E-5</v>
+        <v>7.299296918201864E-6</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.002609630031247332</v>
+        <v>5.504621393694874E-5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.007567733985400338</v>
+        <v>1.571391749770612E-4</v>
       </c>
       <c r="AK35" t="n">
-        <v>5.727059767378328E-5</v>
+        <v>2.4692720312471458E-8</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM35" t="n">
-        <v>41.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.11999999999989086</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AO35" t="s">
         <v>102</v>
@@ -5770,25 +5770,25 @@
         <v>200.0</v>
       </c>
       <c r="AR35" t="n">
-        <v>-4.188096681878735E-6</v>
+        <v>4.88797048552095E-6</v>
       </c>
       <c r="AS35" t="n">
-        <v>5.8915025442123005E-6</v>
+        <v>-6.466291551549346E-8</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.044643103005228E-5</v>
+        <v>1.3827114329956203E-5</v>
       </c>
       <c r="AU35" t="n">
-        <v>4.180565418666848E-10</v>
+        <v>1.9118909069368017E-10</v>
       </c>
       <c r="AV35" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW35" t="n">
         <v>100.0</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.5</v>
+        <v>0.5700000000000074</v>
       </c>
       <c r="AY35" t="s">
         <v>102</v>
@@ -5805,25 +5805,25 @@
         <v>20.0</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.367443206864388E-4</v>
+        <v>-0.001543298363685608</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.7686856165397268E-4</v>
+        <v>-0.002123504877090454</v>
       </c>
       <c r="F36" t="n">
-        <v>0.001079693543612592</v>
+        <v>0.0076083105815634156</v>
       </c>
       <c r="G36" t="n">
-        <v>1.1657381481187163E-6</v>
+        <v>5.788638990552984E-5</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I36" t="n">
-        <v>61.0</v>
+        <v>34.0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="K36" t="s">
         <v>102</v>
@@ -5835,25 +5835,25 @@
         <v>40.0</v>
       </c>
       <c r="N36" t="n">
-        <v>0.001535813669951749</v>
+        <v>-7.713284935444715E-5</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0014919259597792139</v>
+        <v>-3.143905571502968E-4</v>
       </c>
       <c r="P36" t="n">
-        <v>0.006178191290448609</v>
+        <v>9.183925005089577E-4</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.817004762137505E-5</v>
+        <v>8.434447849910959E-7</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S36" t="n">
-        <v>67.0</v>
+        <v>100.0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1000000000003638</v>
+        <v>0.13000000000000966</v>
       </c>
       <c r="U36" t="s">
         <v>102</v>
@@ -5865,25 +5865,25 @@
         <v>70.0</v>
       </c>
       <c r="X36" t="n">
-        <v>6.051724607565966E-6</v>
+        <v>2.8315186500549316E-4</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.24768937046764E-6</v>
+        <v>-0.0010013580322265625</v>
       </c>
       <c r="Z36" t="n">
-        <v>3.1262571646095694E-5</v>
+        <v>0.0029721439704779584</v>
       </c>
       <c r="AA36" t="n">
-        <v>9.773483859272665E-10</v>
+        <v>8.833639781248484E-6</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC36" t="n">
-        <v>77.0</v>
+        <v>86.0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.1500000000005457</v>
+        <v>0.35999999999999943</v>
       </c>
       <c r="AE36" t="s">
         <v>102</v>
@@ -5895,25 +5895,25 @@
         <v>100.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.0013458083080171556</v>
+        <v>-3.0137254119520047E-4</v>
       </c>
       <c r="AI36" t="n">
-        <v>-3.1136425274939537E-4</v>
+        <v>7.754767464741521E-5</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.0039578782672791135</v>
+        <v>8.827561480728718E-4</v>
       </c>
       <c r="AK36" t="n">
-        <v>1.566480037860032E-5</v>
+        <v>7.792584169604541E-7</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM36" t="n">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.22999999999956344</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AO36" t="s">
         <v>102</v>
@@ -5925,25 +5925,25 @@
         <v>200.0</v>
       </c>
       <c r="AR36" t="n">
-        <v>-7.1408304932908125E-6</v>
+        <v>-8.575173769743184E-4</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.736296332973102E-5</v>
+        <v>0.0014199579112629973</v>
       </c>
       <c r="AT36" t="n">
-        <v>8.000745524228137E-5</v>
+        <v>0.004765063818279458</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.401192894345656E-9</v>
+        <v>2.2705833192276007E-5</v>
       </c>
       <c r="AV36" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW36" t="n">
-        <v>93.0</v>
+        <v>36.0</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.21000000000000796</v>
       </c>
       <c r="AY36" t="s">
         <v>102</v>
@@ -5960,25 +5960,25 @@
         <v>20.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01759189796374066</v>
+        <v>9.875511309291596E-5</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0022279201709265103</v>
+        <v>-0.010172636969996476</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05850637443196405</v>
+        <v>0.03152739719616093</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0034229958491731765</v>
+        <v>9.939767739644964E-4</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I37" t="n">
-        <v>53.0</v>
+        <v>66.0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.05999999999949068</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="K37" t="s">
         <v>102</v>
@@ -5990,25 +5990,25 @@
         <v>40.0</v>
       </c>
       <c r="N37" t="n">
-        <v>-9.438080670957815E-5</v>
+        <v>-2.576687181981545E-4</v>
       </c>
       <c r="O37" t="n">
-        <v>6.238920544165353E-6</v>
+        <v>-4.6757205103512987E-4</v>
       </c>
       <c r="P37" t="n">
-        <v>2.677700768636271E-4</v>
+        <v>0.0015176008850872336</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.170081406355275E-8</v>
+        <v>2.3031124464175547E-6</v>
       </c>
       <c r="R37" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S37" t="n">
-        <v>100.0</v>
+        <v>54.0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.18000000000029104</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="U37" t="s">
         <v>102</v>
@@ -6020,25 +6020,25 @@
         <v>70.0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.974464930446664E-4</v>
+        <v>1.0896559364582031E-4</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.366618946606103E-4</v>
+        <v>-1.9084940642196078E-5</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.807207753141142E-4</v>
+        <v>3.132186391958669E-4</v>
       </c>
       <c r="AA37" t="n">
-        <v>4.633807739442488E-7</v>
+        <v>9.810591593971065E-8</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC37" t="n">
-        <v>52.0</v>
+        <v>68.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.13000000000010914</v>
+        <v>0.3400000000000034</v>
       </c>
       <c r="AE37" t="s">
         <v>102</v>
@@ -6050,25 +6050,25 @@
         <v>100.0</v>
       </c>
       <c r="AH37" t="n">
-        <v>-6.670000801676298E-5</v>
+        <v>-6.718072646439122E-4</v>
       </c>
       <c r="AI37" t="n">
-        <v>2.5701674325764564E-4</v>
+        <v>2.9647543944058406E-4</v>
       </c>
       <c r="AJ37" t="n">
-        <v>7.529114119968483E-4</v>
+        <v>0.002091323056632177</v>
       </c>
       <c r="AK37" t="n">
-        <v>5.668755943150878E-7</v>
+        <v>4.3736321272013526E-6</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM37" t="n">
-        <v>67.0</v>
+        <v>60.0</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.17999999999938154</v>
+        <v>0.25</v>
       </c>
       <c r="AO37" t="s">
         <v>102</v>
@@ -6080,25 +6080,25 @@
         <v>200.0</v>
       </c>
       <c r="AR37" t="n">
-        <v>7.450580596923828E-8</v>
+        <v>-8.18821003989598E-6</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.3083219528198242E-5</v>
+        <v>-4.000278869671036E-6</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.7012734825481175E-5</v>
+        <v>2.5778016347288712E-5</v>
       </c>
       <c r="AU37" t="n">
-        <v>1.369942539261387E-9</v>
+        <v>6.645061268010841E-10</v>
       </c>
       <c r="AV37" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW37" t="n">
-        <v>88.0</v>
+        <v>100.0</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.4499999999998181</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="AY37" t="s">
         <v>102</v>
@@ -6115,25 +6115,25 @@
         <v>20.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0016477406024932861</v>
+        <v>-0.09199388332099374</v>
       </c>
       <c r="E38" t="n">
-        <v>6.172060966491699E-5</v>
+        <v>0.053443267662787904</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004736174892478573</v>
+        <v>0.5797507029613023</v>
       </c>
       <c r="G38" t="n">
-        <v>2.243135261214442E-5</v>
+        <v>0.3361108775841241</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I38" t="n">
-        <v>100.0</v>
+        <v>41.0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.11999999999989086</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="K38" t="s">
         <v>102</v>
@@ -6145,25 +6145,25 @@
         <v>40.0</v>
       </c>
       <c r="N38" t="n">
-        <v>5.319771769665368E-4</v>
+        <v>0.0023444732595976174</v>
       </c>
       <c r="O38" t="n">
-        <v>1.8858839676524127E-4</v>
+        <v>-0.018680821864188905</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0016048920758215957</v>
+        <v>0.0626635152236581</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.5756785750349503E-6</v>
+        <v>0.00392671614018563</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S38" t="n">
-        <v>86.0</v>
+        <v>51.0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.15999999999985448</v>
+        <v>0.04000000000000625</v>
       </c>
       <c r="U38" t="s">
         <v>102</v>
@@ -6175,25 +6175,25 @@
         <v>70.0</v>
       </c>
       <c r="X38" t="n">
-        <v>-4.913714425939408E-6</v>
+        <v>-1.537799835205078E-5</v>
       </c>
       <c r="Y38" t="n">
-        <v>-8.053790345411311E-7</v>
+        <v>-2.871304750442505E-4</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.4084189547958204E-5</v>
+        <v>8.154845206114203E-4</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.983643952228151E-10</v>
+        <v>6.650150033568379E-7</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC38" t="n">
         <v>100.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.25</v>
+        <v>0.46999999999999886</v>
       </c>
       <c r="AE38" t="s">
         <v>102</v>
@@ -6205,25 +6205,25 @@
         <v>100.0</v>
       </c>
       <c r="AH38" t="n">
-        <v>-1.773813976149003E-5</v>
+        <v>-5.4255127906799316E-5</v>
       </c>
       <c r="AI38" t="n">
-        <v>1.2942476737286962E-5</v>
+        <v>3.0806660652160645E-4</v>
       </c>
       <c r="AJ38" t="n">
-        <v>6.211915455267558E-5</v>
+        <v>8.873568673770649E-4</v>
       </c>
       <c r="AK38" t="n">
-        <v>3.858789362339195E-9</v>
+        <v>7.874022100812379E-7</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM38" t="n">
-        <v>72.0</v>
+        <v>66.0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.23000000000047294</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="AO38" t="s">
         <v>102</v>
@@ -6235,25 +6235,25 @@
         <v>200.0</v>
       </c>
       <c r="AR38" t="n">
-        <v>3.1574705207010414E-6</v>
+        <v>-1.0134936638846898E-5</v>
       </c>
       <c r="AS38" t="n">
-        <v>-4.153976100125214E-6</v>
+        <v>7.239813392079913E-6</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.4758810888082508E-5</v>
+        <v>3.523273730721144E-5</v>
       </c>
       <c r="AU38" t="n">
-        <v>2.1782249883018277E-10</v>
+        <v>1.2413457781589686E-9</v>
       </c>
       <c r="AV38" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW38" t="n">
-        <v>100.0</v>
+        <v>92.0</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.5300000000006548</v>
+        <v>0.5900000000000034</v>
       </c>
       <c r="AY38" t="s">
         <v>102</v>
@@ -6270,25 +6270,25 @@
         <v>20.0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0017332794325937307</v>
+        <v>-0.014929948413882344</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03131956558536815</v>
+        <v>-0.015380275320313913</v>
       </c>
       <c r="F39" t="n">
-        <v>0.11470936533250153</v>
+        <v>0.07282461408215113</v>
       </c>
       <c r="G39" t="n">
-        <v>0.013158238494985305</v>
+        <v>0.005303424416214245</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I39" t="n">
-        <v>43.0</v>
+        <v>33.0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="K39" t="s">
         <v>102</v>
@@ -6300,25 +6300,25 @@
         <v>40.0</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0013883262872695923</v>
+        <v>-9.705135950255689E-4</v>
       </c>
       <c r="O39" t="n">
-        <v>0.002093568444252014</v>
+        <v>-4.4691565560890016E-4</v>
       </c>
       <c r="P39" t="n">
-        <v>0.007273225502220981</v>
+        <v>0.003052491815484615</v>
       </c>
       <c r="Q39" t="n">
-        <v>5.2899809206157644E-5</v>
+        <v>9.31770628360056E-6</v>
       </c>
       <c r="R39" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S39" t="n">
-        <v>44.0</v>
+        <v>73.0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.12999999999999545</v>
       </c>
       <c r="U39" t="s">
         <v>102</v>
@@ -6330,25 +6330,25 @@
         <v>70.0</v>
       </c>
       <c r="X39" t="n">
-        <v>2.428889274597168E-6</v>
+        <v>-6.050193750789321E-5</v>
       </c>
       <c r="Y39" t="n">
-        <v>-9.569525718688965E-5</v>
+        <v>-1.0300012340708286E-4</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.710104244698641E-4</v>
+        <v>3.382498878998774E-4</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.344665017133593E-8</v>
+        <v>1.1441298666427964E-7</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC39" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.35999999999999943</v>
       </c>
       <c r="AE39" t="s">
         <v>102</v>
@@ -6360,25 +6360,25 @@
         <v>100.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>-1.5972675244769986E-5</v>
+        <v>-1.3980561804438212E-4</v>
       </c>
       <c r="AI39" t="n">
-        <v>1.5570212575219668E-4</v>
+        <v>2.568601501057334E-5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>4.4335566565223417E-4</v>
+        <v>4.025866124663935E-4</v>
       </c>
       <c r="AK39" t="n">
-        <v>1.9656424626593566E-7</v>
+        <v>1.620759805371661E-7</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM39" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="AN39" t="n">
-        <v>0.17000000000007276</v>
+        <v>0.23000000000000398</v>
       </c>
       <c r="AO39" t="s">
         <v>102</v>
@@ -6390,25 +6390,25 @@
         <v>200.0</v>
       </c>
       <c r="AR39" t="n">
-        <v>2.3812055587768555E-5</v>
+        <v>3.6587936687445177E-4</v>
       </c>
       <c r="AS39" t="n">
-        <v>4.762411117553711E-5</v>
+        <v>-1.708245746398795E-4</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5068141439300575E-4</v>
+        <v>0.001146440649524294</v>
       </c>
       <c r="AU39" t="n">
-        <v>2.270488864347672E-8</v>
+        <v>1.3143261628816852E-6</v>
       </c>
       <c r="AV39" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW39" t="n">
-        <v>100.0</v>
+        <v>49.0</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.5500000000001819</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="AY39" t="s">
         <v>102</v>
@@ -6425,25 +6425,25 @@
         <v>20.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01460034394811127</v>
+        <v>0.01624268595224715</v>
       </c>
       <c r="E40" t="n">
-        <v>1.7618158735028784E-4</v>
+        <v>0.012129467454185354</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04696622635659509</v>
+        <v>0.06825014249489669</v>
       </c>
       <c r="G40" t="n">
-        <v>0.002205826418178927</v>
+        <v>0.004658081950573704</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I40" t="n">
-        <v>58.0</v>
+        <v>36.0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.06999999999970896</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="K40" t="s">
         <v>102</v>
@@ -6455,25 +6455,25 @@
         <v>40.0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.09313246994073196</v>
+        <v>-3.840086038902619E-5</v>
       </c>
       <c r="O40" t="n">
-        <v>9.920186459030367E-4</v>
+        <v>1.3041732926494926E-5</v>
       </c>
       <c r="P40" t="n">
-        <v>0.47871488769425596</v>
+        <v>1.1475082723677588E-4</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2291679437001241</v>
+        <v>1.3167752351524384E-8</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S40" t="n">
-        <v>27.0</v>
+        <v>82.0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.06999999999970896</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="U40" t="s">
         <v>102</v>
@@ -6485,25 +6485,25 @@
         <v>70.0</v>
       </c>
       <c r="X40" t="n">
-        <v>3.3611508807197127E-7</v>
+        <v>-3.9517997614958256E-4</v>
       </c>
       <c r="Y40" t="n">
-        <v>-2.746204108876934E-4</v>
+        <v>-1.0800079293144367E-4</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.787526176166182E-4</v>
+        <v>0.0011631972863597184</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.064556394447347E-7</v>
+        <v>1.3530279269946129E-6</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC40" t="n">
-        <v>96.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.23999999999978172</v>
+        <v>0.5400000000000063</v>
       </c>
       <c r="AE40" t="s">
         <v>102</v>
@@ -6515,25 +6515,25 @@
         <v>100.0</v>
       </c>
       <c r="AH40" t="n">
-        <v>-5.514473680067311E-5</v>
+        <v>-1.8491308868018472E-5</v>
       </c>
       <c r="AI40" t="n">
-        <v>-7.840580633190997E-5</v>
+        <v>-2.9042501275419134E-5</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2.7136696899532353E-4</v>
+        <v>9.741309866484471E-5</v>
       </c>
       <c r="AK40" t="n">
-        <v>7.364003186170889E-8</v>
+        <v>9.48931179148677E-9</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM40" t="n">
-        <v>68.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.3499999999999943</v>
       </c>
       <c r="AO40" t="s">
         <v>102</v>
@@ -6545,25 +6545,25 @@
         <v>200.0</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.4585897949401088E-5</v>
+        <v>2.890955388423831E-6</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.678217475985233E-5</v>
+        <v>4.387650496144967E-6</v>
       </c>
       <c r="AT40" t="n">
-        <v>6.290289741528454E-5</v>
+        <v>1.4862525098635615E-5</v>
       </c>
       <c r="AU40" t="n">
-        <v>3.956774503237811E-9</v>
+        <v>2.208946523075736E-10</v>
       </c>
       <c r="AV40" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW40" t="n">
-        <v>83.0</v>
+        <v>81.0</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.43000000000029104</v>
+        <v>0.4299999999999926</v>
       </c>
       <c r="AY40" t="s">
         <v>102</v>
@@ -6580,25 +6580,25 @@
         <v>20.0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.003804843089562802</v>
+        <v>-0.010979071259498596</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.692430401462487E-4</v>
+        <v>-9.188652038574219E-4</v>
       </c>
       <c r="F41" t="n">
-        <v>0.011324300552413291</v>
+        <v>0.03439111351368496</v>
       </c>
       <c r="G41" t="n">
-        <v>1.2823978300138797E-4</v>
+        <v>0.001182748688711164</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I41" t="n">
-        <v>63.0</v>
+        <v>91.0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.05999999999949068</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="K41" t="s">
         <v>102</v>
@@ -6610,25 +6610,25 @@
         <v>40.0</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.006501261720010595</v>
+        <v>-0.006681085784402141</v>
       </c>
       <c r="O41" t="n">
-        <v>0.004167684932241386</v>
+        <v>0.01703270493995106</v>
       </c>
       <c r="P41" t="n">
-        <v>0.023429703193066587</v>
+        <v>0.060640897897986434</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.489509917151946E-4</v>
+        <v>0.0036773184978740156</v>
       </c>
       <c r="R41" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S41" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.13999999999941792</v>
+        <v>0.12000000000000455</v>
       </c>
       <c r="U41" t="s">
         <v>102</v>
@@ -6640,25 +6640,25 @@
         <v>70.0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.215364158943578E-5</v>
+        <v>5.923688081646141E-4</v>
       </c>
       <c r="Y41" t="n">
-        <v>-1.4823392676902667E-5</v>
+        <v>-0.0014155212541632752</v>
       </c>
       <c r="Z41" t="n">
-        <v>5.4227418047503306E-5</v>
+        <v>0.004402837495224077</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.9406128680986873E-9</v>
+        <v>1.938497800935102E-5</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC41" t="n">
         <v>100.0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.2899999999999636</v>
+        <v>0.4099999999999966</v>
       </c>
       <c r="AE41" t="s">
         <v>102</v>
@@ -6670,25 +6670,25 @@
         <v>100.0</v>
       </c>
       <c r="AH41" t="n">
-        <v>-5.521661083457904E-5</v>
+        <v>2.295187226315616E-5</v>
       </c>
       <c r="AI41" t="n">
-        <v>1.9382270031889425E-5</v>
+        <v>-1.1514116807543516E-4</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.6560968460055392E-4</v>
+        <v>3.3244267095966507E-4</v>
       </c>
       <c r="AK41" t="n">
-        <v>2.7426567633494944E-8</v>
+        <v>1.1051812947479613E-7</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM41" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="AN41" t="n">
-        <v>0.3500000000003638</v>
+        <v>0.28999999999999204</v>
       </c>
       <c r="AO41" t="s">
         <v>102</v>
@@ -6700,25 +6700,25 @@
         <v>200.0</v>
       </c>
       <c r="AR41" t="n">
-        <v>7.298694033400128E-5</v>
+        <v>-1.1369585990905762E-5</v>
       </c>
       <c r="AS41" t="n">
-        <v>-1.1873042685187683E-4</v>
+        <v>6.362795829772949E-6</v>
       </c>
       <c r="AT41" t="n">
-        <v>3.9471522771350465E-4</v>
+        <v>3.685898154870415E-5</v>
       </c>
       <c r="AU41" t="n">
-        <v>1.5580011098892384E-7</v>
+        <v>1.358584520807713E-9</v>
       </c>
       <c r="AV41" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW41" t="n">
         <v>100.0</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="AY41" t="s">
         <v>102</v>
@@ -6735,25 +6735,25 @@
         <v>20.0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.00417824657988734</v>
+        <v>-0.030562748222558646</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.013747223434528883</v>
+        <v>0.06957805955393481</v>
       </c>
       <c r="F42" t="n">
-        <v>0.046127762201091826</v>
+        <v>0.3623853829595305</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0021277704456804758</v>
+        <v>0.13132316578272557</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I42" t="n">
-        <v>75.0</v>
+        <v>41.0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="K42" t="s">
         <v>102</v>
@@ -6765,25 +6765,25 @@
         <v>40.0</v>
       </c>
       <c r="N42" t="n">
-        <v>8.371726289715595E-5</v>
+        <v>-2.538833310663094E-4</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.006300938715909607</v>
+        <v>-5.20974715694969E-5</v>
       </c>
       <c r="P42" t="n">
-        <v>0.018880354981110514</v>
+        <v>7.348419489972002E-4</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.564678042127446E-4</v>
+        <v>5.399926900060038E-7</v>
       </c>
       <c r="R42" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S42" t="n">
-        <v>43.0</v>
+        <v>100.0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.05999999999949068</v>
+        <v>0.13999999999998636</v>
       </c>
       <c r="U42" t="s">
         <v>102</v>
@@ -6795,25 +6795,25 @@
         <v>70.0</v>
       </c>
       <c r="X42" t="n">
-        <v>4.62263822555542E-4</v>
+        <v>5.1381112712456205E-5</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.9659271240234375E-4</v>
+        <v>7.502605348580653E-5</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.001561496110529248</v>
+        <v>2.574193706834649E-4</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.4382701031979695E-6</v>
+        <v>6.62647324030711E-8</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC42" t="n">
-        <v>52.0</v>
+        <v>75.0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.44000000000001194</v>
       </c>
       <c r="AE42" t="s">
         <v>102</v>
@@ -6825,25 +6825,25 @@
         <v>100.0</v>
       </c>
       <c r="AH42" t="n">
-        <v>2.902823781165524E-4</v>
+        <v>-5.9763719669830684E-5</v>
       </c>
       <c r="AI42" t="n">
-        <v>4.323377359937812E-4</v>
+        <v>1.2215659397924906E-4</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.0014801223543514652</v>
+        <v>3.851370851144509E-4</v>
       </c>
       <c r="AK42" t="n">
-        <v>2.190762183850924E-6</v>
+        <v>1.483305743304558E-7</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM42" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.14000000000032742</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="AO42" t="s">
         <v>102</v>
@@ -6855,25 +6855,25 @@
         <v>200.0</v>
       </c>
       <c r="AR42" t="n">
-        <v>1.253792131155662E-5</v>
+        <v>2.086162567138672E-6</v>
       </c>
       <c r="AS42" t="n">
-        <v>7.259939089235671E-6</v>
+        <v>-5.1587820053100586E-5</v>
       </c>
       <c r="AT42" t="n">
-        <v>4.0984236228780446E-5</v>
+        <v>1.4609416480126924E-4</v>
       </c>
       <c r="AU42" t="n">
-        <v>1.6797076192564797E-9</v>
+        <v>2.1343504988980416E-8</v>
       </c>
       <c r="AV42" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW42" t="n">
-        <v>100.0</v>
+        <v>63.0</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.47999999999956344</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="AY42" t="s">
         <v>102</v>
@@ -6890,25 +6890,25 @@
         <v>20.0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.04215082303698527</v>
+        <v>-0.10598237690199977</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.044197390414524196</v>
+        <v>0.04042662732409591</v>
       </c>
       <c r="F43" t="n">
-        <v>0.26966214032664126</v>
+        <v>0.6325511102394046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07271766992554517</v>
+        <v>0.40012090706510334</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I43" t="n">
-        <v>48.0</v>
+        <v>35.0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.05999999999949068</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="K43" t="s">
         <v>102</v>
@@ -6920,25 +6920,25 @@
         <v>40.0</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0017863098868182025</v>
+        <v>0.002925500445853838</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.001473742776688998</v>
+        <v>4.281173119408165E-4</v>
       </c>
       <c r="P43" t="n">
-        <v>0.00669280320949639</v>
+        <v>0.008595461338309462</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.479361480104517E-5</v>
+        <v>7.38819556183727E-5</v>
       </c>
       <c r="R43" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S43" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.07000000000061846</v>
+        <v>0.0899999999999892</v>
       </c>
       <c r="U43" t="s">
         <v>102</v>
@@ -6950,25 +6950,25 @@
         <v>70.0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.19024988924592E-7</v>
+        <v>0.005471184849739075</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.0428265683145533E-6</v>
+        <v>-0.002505883574485779</v>
       </c>
       <c r="Z43" t="n">
-        <v>5.787896800057979E-6</v>
+        <v>0.017984835595655113</v>
       </c>
       <c r="AA43" t="n">
-        <v>3.3499749368121394E-11</v>
+        <v>3.234543114027432E-4</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC43" t="n">
-        <v>100.0</v>
+        <v>41.0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.15000000000000568</v>
       </c>
       <c r="AE43" t="s">
         <v>102</v>
@@ -6980,25 +6980,25 @@
         <v>100.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>-2.606886923358433E-5</v>
+        <v>9.452467153838945E-5</v>
       </c>
       <c r="AI43" t="n">
-        <v>2.4566905710657198E-5</v>
+        <v>6.537782330992179E-6</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1.0135025884494553E-4</v>
+        <v>2.6823392782659994E-4</v>
       </c>
       <c r="AK43" t="n">
-        <v>1.027187496793746E-8</v>
+        <v>7.194944003728562E-8</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM43" t="n">
-        <v>100.0</v>
+        <v>86.0</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.2599999999993088</v>
+        <v>0.4099999999999966</v>
       </c>
       <c r="AO43" t="s">
         <v>102</v>
@@ -7010,25 +7010,25 @@
         <v>200.0</v>
       </c>
       <c r="AR43" t="n">
-        <v>-2.803210148683887E-4</v>
+        <v>-1.4187395572662354E-4</v>
       </c>
       <c r="AS43" t="n">
-        <v>-1.4983958864980688E-4</v>
+        <v>2.247244119644165E-4</v>
       </c>
       <c r="AT43" t="n">
-        <v>9.017198916190239E-4</v>
+        <v>7.535632053041752E-4</v>
       </c>
       <c r="AU43" t="n">
-        <v>8.130987629414241E-7</v>
+        <v>5.678575043883025E-7</v>
       </c>
       <c r="AV43" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW43" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.2600000000002183</v>
+        <v>0.25</v>
       </c>
       <c r="AY43" t="s">
         <v>102</v>
@@ -7045,25 +7045,25 @@
         <v>20.0</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.2952553594502785E-4</v>
+        <v>-0.10092301666736603</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0024663149920473386</v>
+        <v>0.004616335034370422</v>
       </c>
       <c r="F44" t="n">
-        <v>0.007147816957797204</v>
+        <v>0.536027768912728</v>
       </c>
       <c r="G44" t="n">
-        <v>5.109128726217327E-5</v>
+        <v>0.2873257690455569</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I44" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0500000000001819</v>
+        <v>0.060000000000002274</v>
       </c>
       <c r="K44" t="s">
         <v>102</v>
@@ -7075,25 +7075,25 @@
         <v>40.0</v>
       </c>
       <c r="N44" t="n">
-        <v>4.2982393723065546E-5</v>
+        <v>0.02304217219352722</v>
       </c>
       <c r="O44" t="n">
-        <v>-7.134563388622611E-4</v>
+        <v>3.287196159362793E-5</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0020352215436041377</v>
+        <v>0.07924945531827987</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.142126731550409E-6</v>
+        <v>0.006280476168244038</v>
       </c>
       <c r="R44" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S44" t="n">
-        <v>93.0</v>
+        <v>100.0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.14000000000032742</v>
+        <v>0.15000000000000568</v>
       </c>
       <c r="U44" t="s">
         <v>102</v>
@@ -7105,25 +7105,25 @@
         <v>70.0</v>
       </c>
       <c r="X44" t="n">
-        <v>-8.474164847817214E-6</v>
+        <v>-1.5059113502502441E-4</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.021105934900917E-7</v>
+        <v>6.380677223205566E-5</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.40776185478353E-5</v>
+        <v>4.63303329826914E-4</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.797317149350625E-10</v>
+        <v>2.146499754287063E-7</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC44" t="n">
-        <v>94.0</v>
+        <v>59.0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.21999999999934516</v>
+        <v>0.25</v>
       </c>
       <c r="AE44" t="s">
         <v>102</v>
@@ -7135,25 +7135,25 @@
         <v>100.0</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.442401921722492E-5</v>
+        <v>-2.7519843027947565E-5</v>
       </c>
       <c r="AI44" t="n">
-        <v>1.3537473064154651E-6</v>
+        <v>2.4623537336530212E-5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>4.098216387404818E-5</v>
+        <v>1.0448382427341585E-4</v>
       </c>
       <c r="AK44" t="n">
-        <v>1.67953775579934E-9</v>
+        <v>1.0916869534798043E-8</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM44" t="n">
-        <v>100.0</v>
+        <v>95.0</v>
       </c>
       <c r="AN44" t="n">
-        <v>0.3100000000004002</v>
+        <v>0.4299999999999926</v>
       </c>
       <c r="AO44" t="s">
         <v>102</v>
@@ -7165,25 +7165,25 @@
         <v>200.0</v>
       </c>
       <c r="AR44" t="n">
-        <v>1.519918441772461E-6</v>
+        <v>3.3172137942969436E-4</v>
       </c>
       <c r="AS44" t="n">
-        <v>-1.385807991027832E-6</v>
+        <v>-4.199399691142032E-5</v>
       </c>
       <c r="AT44" t="n">
-        <v>5.8182538502649095E-6</v>
+        <v>9.487152179197267E-4</v>
       </c>
       <c r="AU44" t="n">
-        <v>3.385207786612244E-11</v>
+        <v>9.000605647124745E-7</v>
       </c>
       <c r="AV44" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW44" t="n">
-        <v>100.0</v>
+        <v>46.0</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.5700000000006185</v>
+        <v>0.269999999999996</v>
       </c>
       <c r="AY44" t="s">
         <v>102</v>
@@ -7200,25 +7200,25 @@
         <v>20.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01060170966255632</v>
+        <v>-0.019760998713605323</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2179275320485664</v>
+        <v>0.10263504437180915</v>
       </c>
       <c r="F45" t="n">
-        <v>1.5057376774206581</v>
+        <v>0.5625916735590479</v>
       </c>
       <c r="G45" t="n">
-        <v>2.267245953204158</v>
+        <v>0.31650939115797033</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I45" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03999999999996362</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="K45" t="s">
         <v>102</v>
@@ -7230,25 +7230,25 @@
         <v>40.0</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.8528702731529407E-5</v>
+        <v>5.709847317343225E-4</v>
       </c>
       <c r="O45" t="n">
-        <v>-5.518401020547228E-4</v>
+        <v>-0.0024872798665439167</v>
       </c>
       <c r="P45" t="n">
-        <v>0.001569837273894592</v>
+        <v>0.007391490555193059</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.4643890665088042E-6</v>
+        <v>5.463413262750819E-5</v>
       </c>
       <c r="R45" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S45" t="n">
-        <v>100.0</v>
+        <v>42.0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.15999999999985448</v>
+        <v>0.0799999999999983</v>
       </c>
       <c r="U45" t="s">
         <v>102</v>
@@ -7260,25 +7260,25 @@
         <v>70.0</v>
       </c>
       <c r="X45" t="n">
-        <v>-5.7148213227223126E-5</v>
+        <v>-7.241964340209961E-6</v>
       </c>
       <c r="Y45" t="n">
-        <v>-1.4610506732039706E-4</v>
+        <v>-6.543099880218506E-5</v>
       </c>
       <c r="Z45" t="n">
-        <v>4.4439053044342813E-4</v>
+        <v>1.8630973425004527E-4</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.9748294354779143E-7</v>
+        <v>3.471131707632249E-8</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC45" t="n">
-        <v>51.0</v>
+        <v>100.0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.17000000000007276</v>
+        <v>0.37000000000000455</v>
       </c>
       <c r="AE45" t="s">
         <v>102</v>
@@ -7290,25 +7290,25 @@
         <v>100.0</v>
       </c>
       <c r="AH45" t="n">
-        <v>4.576315667971882E-5</v>
+        <v>2.196580171585083E-4</v>
       </c>
       <c r="AI45" t="n">
-        <v>-2.3649599912155042E-4</v>
+        <v>-7.539987564086914E-4</v>
       </c>
       <c r="AJ45" t="n">
-        <v>6.828651373993466E-4</v>
+        <v>0.0022377090111902476</v>
       </c>
       <c r="AK45" t="n">
-        <v>4.663047958754285E-7</v>
+        <v>5.007341618762035E-6</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM45" t="n">
-        <v>100.0</v>
+        <v>91.0</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.26999999999952706</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="AO45" t="s">
         <v>102</v>
@@ -7320,25 +7320,25 @@
         <v>200.0</v>
       </c>
       <c r="AR45" t="n">
-        <v>1.1574707230911592E-5</v>
+        <v>2.078711986541748E-5</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.6958469431564116E-6</v>
+        <v>-2.288818359375E-5</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.361821485370342E-5</v>
+        <v>8.747532929120894E-5</v>
       </c>
       <c r="AU45" t="n">
-        <v>1.1301843699497653E-9</v>
+        <v>7.651933234605437E-9</v>
       </c>
       <c r="AV45" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW45" t="n">
-        <v>100.0</v>
+        <v>83.0</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.5300000000006548</v>
+        <v>0.480000000000004</v>
       </c>
       <c r="AY45" t="s">
         <v>102</v>
@@ -7355,25 +7355,25 @@
         <v>20.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0018245428800582886</v>
+        <v>0.003536261873568647</v>
       </c>
       <c r="E46" t="n">
-        <v>7.824599742889404E-5</v>
+        <v>-0.008505872971353218</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005254141136198598</v>
+        <v>0.02831269130568259</v>
       </c>
       <c r="G46" t="n">
-        <v>2.7605999079094294E-5</v>
+        <v>8.016084889708746E-4</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I46" t="n">
-        <v>73.0</v>
+        <v>34.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.06999999999970896</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="K46" t="s">
         <v>102</v>
@@ -7385,25 +7385,25 @@
         <v>40.0</v>
       </c>
       <c r="N46" t="n">
-        <v>-9.238938967464853E-4</v>
+        <v>-0.0014101523719555586</v>
       </c>
       <c r="O46" t="n">
-        <v>0.002435634936546893</v>
+        <v>0.005516556203119211</v>
       </c>
       <c r="P46" t="n">
-        <v>0.00754867169293405</v>
+        <v>0.016967983446903645</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.698244432770382E-5</v>
+        <v>2.879124622543961E-4</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S46" t="n">
-        <v>47.0</v>
+        <v>53.0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.06999999999970896</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="U46" t="s">
         <v>102</v>
@@ -7415,25 +7415,25 @@
         <v>70.0</v>
       </c>
       <c r="X46" t="n">
-        <v>3.791302442550659E-4</v>
+        <v>-3.277150624716335E-4</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.2561678886413574E-4</v>
+        <v>8.51851085048047E-4</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.0011339042118976295</v>
+        <v>0.0026037285049902437</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.2857387617591841E-6</v>
+        <v>6.779402127698729E-6</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC46" t="n">
-        <v>100.0</v>
+        <v>52.0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.19000000000050932</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="AE46" t="s">
         <v>102</v>
@@ -7445,25 +7445,25 @@
         <v>100.0</v>
       </c>
       <c r="AH46" t="n">
-        <v>1.3638523531938495E-4</v>
+        <v>2.586141589787854E-4</v>
       </c>
       <c r="AI46" t="n">
-        <v>-1.8004215568499286E-4</v>
+        <v>-2.5668284767706986E-4</v>
       </c>
       <c r="AJ46" t="n">
-        <v>6.402081304663909E-4</v>
+        <v>0.001034136627197313</v>
       </c>
       <c r="AK46" t="n">
-        <v>4.098664503152714E-7</v>
+        <v>1.069438563711034E-6</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM46" t="n">
-        <v>54.0</v>
+        <v>100.0</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.16000000000076398</v>
+        <v>0.4300000000000068</v>
       </c>
       <c r="AO46" t="s">
         <v>102</v>
@@ -7475,25 +7475,25 @@
         <v>200.0</v>
       </c>
       <c r="AR46" t="n">
-        <v>-1.2032570634452623E-5</v>
+        <v>-1.1885803753245621E-5</v>
       </c>
       <c r="AS46" t="n">
-        <v>-4.7174172014697975E-6</v>
+        <v>3.5611517027930835E-6</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.655980660255409E-5</v>
+        <v>3.50987296009464E-5</v>
       </c>
       <c r="AU46" t="n">
-        <v>1.3366194588161577E-9</v>
+        <v>1.231920819600351E-9</v>
       </c>
       <c r="AV46" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW46" t="n">
         <v>100.0</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.47000000000025466</v>
+        <v>0.4899999999999949</v>
       </c>
       <c r="AY46" t="s">
         <v>102</v>
@@ -7510,25 +7510,25 @@
         <v>20.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0765442125016316</v>
+        <v>0.0011693727032602986</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.014787316672807804</v>
+        <v>-0.01325312532427197</v>
       </c>
       <c r="F47" t="n">
-        <v>0.37471478925021984</v>
+        <v>0.04233785136017332</v>
       </c>
       <c r="G47" t="n">
-        <v>0.14041117328283667</v>
+        <v>0.0017924936577961297</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I47" t="n">
-        <v>56.0</v>
+        <v>100.0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.06000000000040018</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="K47" t="s">
         <v>102</v>
@@ -7540,25 +7540,25 @@
         <v>40.0</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.3702111069811534E-4</v>
+        <v>0.0034188260766687914</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.0318605089372341E-4</v>
+        <v>5.192277142579304E-4</v>
       </c>
       <c r="P47" t="n">
-        <v>4.8594031141036E-4</v>
+        <v>0.01009917548112682</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3613798625359764E-7</v>
+        <v>1.0199334539859315E-4</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S47" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.17000000000007276</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="U47" t="s">
         <v>102</v>
@@ -7570,25 +7570,25 @@
         <v>70.0</v>
       </c>
       <c r="X47" t="n">
-        <v>2.1333542007181185E-4</v>
+        <v>4.838407039642334E-5</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.644692430935251E-5</v>
+        <v>1.17570161819458E-5</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.064133149479289E-4</v>
+        <v>1.4089466458244715E-4</v>
       </c>
       <c r="AA47" t="n">
-        <v>3.6773710854613606E-7</v>
+        <v>1.9851306507800287E-8</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC47" t="n">
-        <v>100.0</v>
+        <v>83.0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.4399999999999977</v>
       </c>
       <c r="AE47" t="s">
         <v>102</v>
@@ -7600,25 +7600,25 @@
         <v>100.0</v>
       </c>
       <c r="AH47" t="n">
-        <v>-6.153321423781752E-6</v>
+        <v>4.324615001678467E-4</v>
       </c>
       <c r="AI47" t="n">
-        <v>1.5465931954073993E-6</v>
+        <v>5.173683166503906E-5</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1.7946615123776155E-5</v>
+        <v>0.0012369706991961493</v>
       </c>
       <c r="AK47" t="n">
-        <v>3.22080994400951E-10</v>
+        <v>1.5300965106698106E-6</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM47" t="n">
-        <v>100.0</v>
+        <v>44.0</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.28000000000065484</v>
+        <v>0.12000000000000455</v>
       </c>
       <c r="AO47" t="s">
         <v>102</v>
@@ -7630,25 +7630,25 @@
         <v>200.0</v>
       </c>
       <c r="AR47" t="n">
-        <v>-1.3392291086935463E-4</v>
+        <v>7.450580596923828E-7</v>
       </c>
       <c r="AS47" t="n">
-        <v>-1.514299856413214E-4</v>
+        <v>4.470348358154297E-6</v>
       </c>
       <c r="AT47" t="n">
-        <v>5.728670894775689E-4</v>
+        <v>1.2840636568256514E-5</v>
       </c>
       <c r="AU47" t="n">
-        <v>3.28176702206501E-7</v>
+        <v>1.6488194747804641E-10</v>
       </c>
       <c r="AV47" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW47" t="n">
-        <v>44.0</v>
+        <v>100.0</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="AY47" t="s">
         <v>102</v>
@@ -7665,25 +7665,25 @@
         <v>20.0</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.001333475112915039</v>
+        <v>-0.0095112172208867</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.06470288336277008</v>
+        <v>0.031411336248051626</v>
       </c>
       <c r="F48" t="n">
-        <v>0.29080760475453005</v>
+        <v>0.12127224387700153</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08456906298306696</v>
+        <v>0.014706957134962935</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I48" t="n">
-        <v>77.0</v>
+        <v>35.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.07999999999992724</v>
+        <v>0.030000000000001137</v>
       </c>
       <c r="K48" t="s">
         <v>102</v>
@@ -7695,25 +7695,25 @@
         <v>40.0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.011842678663393096</v>
+        <v>5.977211448753065E-4</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.010785685136273706</v>
+        <v>-0.0010384938946786397</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0521267888724779</v>
+        <v>0.0034273195775398335</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0027172021181558863</v>
+        <v>1.1746519486587823E-5</v>
       </c>
       <c r="R48" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S48" t="n">
-        <v>44.0</v>
+        <v>82.0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.07000000000061846</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="U48" t="s">
         <v>102</v>
@@ -7725,25 +7725,25 @@
         <v>70.0</v>
       </c>
       <c r="X48" t="n">
-        <v>-2.4691224098205566E-5</v>
+        <v>-1.8716440797420268E-5</v>
       </c>
       <c r="Y48" t="n">
-        <v>-2.86102294921875E-6</v>
+        <v>5.678682355619634E-5</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.032561197561904E-5</v>
+        <v>1.6921168975514433E-4</v>
       </c>
       <c r="AA48" t="n">
-        <v>4.945691699745332E-9</v>
+        <v>2.8632595949791218E-8</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC48" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.21000000000003638</v>
+        <v>0.23000000000000398</v>
       </c>
       <c r="AE48" t="s">
         <v>102</v>
@@ -7755,25 +7755,25 @@
         <v>100.0</v>
       </c>
       <c r="AH48" t="n">
-        <v>-2.2978266670958823E-5</v>
+        <v>1.0250508785247803E-4</v>
       </c>
       <c r="AI48" t="n">
-        <v>-1.417125928494754E-5</v>
+        <v>-1.710355281829834E-4</v>
       </c>
       <c r="AJ48" t="n">
-        <v>7.637779027547253E-5</v>
+        <v>5.650511061148222E-4</v>
       </c>
       <c r="AK48" t="n">
-        <v>5.833566847364067E-9</v>
+        <v>3.192827525215841E-7</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM48" t="n">
-        <v>100.0</v>
+        <v>61.0</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.27999999999974534</v>
+        <v>0.21000000000000796</v>
       </c>
       <c r="AO48" t="s">
         <v>102</v>
@@ -7785,25 +7785,25 @@
         <v>200.0</v>
       </c>
       <c r="AR48" t="n">
-        <v>-1.746851248103133E-5</v>
+        <v>-1.163472871784341E-6</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.9206269834425127E-5</v>
+        <v>-2.7014793485670598E-5</v>
       </c>
       <c r="AT48" t="n">
-        <v>9.628696169983186E-5</v>
+        <v>7.649967527001422E-5</v>
       </c>
       <c r="AU48" t="n">
-        <v>9.271178993384888E-9</v>
+        <v>5.8522003164176254E-9</v>
       </c>
       <c r="AV48" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW48" t="n">
         <v>100.0</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.5299999999997453</v>
+        <v>0.519999999999996</v>
       </c>
       <c r="AY48" t="s">
         <v>102</v>
@@ -7820,25 +7820,25 @@
         <v>20.0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.03732016194263374</v>
+        <v>-0.0028014249149837895</v>
       </c>
       <c r="E49" t="n">
-        <v>-4.5939941064209984E-4</v>
+        <v>0.0011500427396675776</v>
       </c>
       <c r="F49" t="n">
-        <v>0.14223500150361446</v>
+        <v>0.008809497137264088</v>
       </c>
       <c r="G49" t="n">
-        <v>0.020230795652733207</v>
+        <v>7.760723981146417E-5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I49" t="n">
-        <v>76.0</v>
+        <v>73.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.11000000000058208</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="K49" t="s">
         <v>102</v>
@@ -7850,25 +7850,25 @@
         <v>40.0</v>
       </c>
       <c r="N49" t="n">
-        <v>-5.28313355227654E-5</v>
+        <v>-0.0018933813586826454</v>
       </c>
       <c r="O49" t="n">
-        <v>9.130374716575113E-5</v>
+        <v>3.775028506413124E-4</v>
       </c>
       <c r="P49" t="n">
-        <v>2.986588290134762E-4</v>
+        <v>0.0055599486325768055</v>
       </c>
       <c r="Q49" t="n">
-        <v>8.91970961477008E-8</v>
+        <v>3.0913028796892686E-5</v>
       </c>
       <c r="R49" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S49" t="n">
-        <v>100.0</v>
+        <v>76.0</v>
       </c>
       <c r="T49" t="n">
-        <v>0.14000000000032742</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="U49" t="s">
         <v>102</v>
@@ -7880,25 +7880,25 @@
         <v>70.0</v>
       </c>
       <c r="X49" t="n">
-        <v>2.3087859153747559E-4</v>
+        <v>-6.959825252605284E-5</v>
       </c>
       <c r="Y49" t="n">
-        <v>-2.7924776077270508E-5</v>
+        <v>3.496652308847693E-5</v>
       </c>
       <c r="Z49" t="n">
-        <v>6.592103444553743E-4</v>
+        <v>2.20462691242318E-4</v>
       </c>
       <c r="AA49" t="n">
-        <v>4.3455827823697324E-7</v>
+        <v>4.8603798229805635E-8</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC49" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.1999999999998181</v>
+        <v>0.1699999999999875</v>
       </c>
       <c r="AE49" t="s">
         <v>102</v>
@@ -7910,25 +7910,25 @@
         <v>100.0</v>
       </c>
       <c r="AH49" t="n">
-        <v>-1.3843153325594492E-5</v>
+        <v>4.079937934875488E-5</v>
       </c>
       <c r="AI49" t="n">
-        <v>5.6113509044752405E-5</v>
+        <v>5.014240741729736E-5</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1.6356026177533067E-4</v>
+        <v>1.8294586999090257E-4</v>
       </c>
       <c r="AK49" t="n">
-        <v>2.6751959232014696E-8</v>
+        <v>3.3469191346728223E-8</v>
       </c>
       <c r="AL49" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM49" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.26999999999952706</v>
+        <v>0.3500000000000085</v>
       </c>
       <c r="AO49" t="s">
         <v>102</v>
@@ -7940,25 +7940,25 @@
         <v>200.0</v>
       </c>
       <c r="AR49" t="n">
-        <v>-1.0505318641662598E-5</v>
+        <v>-3.507532468374906E-5</v>
       </c>
       <c r="AS49" t="n">
-        <v>-1.837313175201416E-5</v>
+        <v>-3.012270761969028E-5</v>
       </c>
       <c r="AT49" t="n">
-        <v>5.9874411544313944E-5</v>
+        <v>1.308286597847541E-4</v>
       </c>
       <c r="AU49" t="n">
-        <v>3.584945157777875E-9</v>
+        <v>1.7116138221074938E-8</v>
       </c>
       <c r="AV49" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW49" t="n">
-        <v>64.0</v>
+        <v>91.0</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.3999999999996362</v>
+        <v>0.5099999999999909</v>
       </c>
       <c r="AY49" t="s">
         <v>102</v>
@@ -7975,25 +7975,25 @@
         <v>20.0</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.0275840759277344E-4</v>
+        <v>0.046677976846694946</v>
       </c>
       <c r="E50" t="n">
-        <v>-7.54132866859436E-4</v>
+        <v>-7.52374529838562E-4</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002168162055873779</v>
+        <v>0.1890438930917533</v>
       </c>
       <c r="G50" t="n">
-        <v>4.700926700530813E-6</v>
+        <v>0.03573759351528625</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I50" t="n">
-        <v>60.0</v>
+        <v>45.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.05999999999949068</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="K50" t="s">
         <v>102</v>
@@ -8005,25 +8005,25 @@
         <v>40.0</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0015472716063360474</v>
+        <v>-0.0031021587689755528</v>
       </c>
       <c r="O50" t="n">
-        <v>0.02272560797134251</v>
+        <v>2.503990235509421E-6</v>
       </c>
       <c r="P50" t="n">
-        <v>0.07818371715829997</v>
+        <v>0.009030468008766945</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.006112693628689049</v>
+        <v>8.154935245736324E-5</v>
       </c>
       <c r="R50" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S50" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="T50" t="n">
-        <v>0.11000000000058208</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="U50" t="s">
         <v>102</v>
@@ -8035,25 +8035,25 @@
         <v>70.0</v>
       </c>
       <c r="X50" t="n">
-        <v>-2.1017123134172523E-4</v>
+        <v>3.027342361028155E-6</v>
       </c>
       <c r="Y50" t="n">
-        <v>-6.237046078215755E-5</v>
+        <v>2.8326872662622797E-6</v>
       </c>
       <c r="Z50" t="n">
-        <v>6.213573618154555E-4</v>
+        <v>1.1726981124837721E-5</v>
       </c>
       <c r="AA50" t="n">
-        <v>3.860849710822629E-7</v>
+        <v>1.3752208630230017E-10</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC50" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.22000000000025466</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AE50" t="s">
         <v>102</v>
@@ -8065,25 +8065,25 @@
         <v>100.0</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.0333736378467891E-5</v>
+        <v>-1.8864870071411133E-5</v>
       </c>
       <c r="AI50" t="n">
-        <v>-4.8453489207330283E-5</v>
+        <v>-9.28342342376709E-6</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1.4019463531766974E-4</v>
+        <v>5.949685743544819E-5</v>
       </c>
       <c r="AK50" t="n">
-        <v>1.965453577185441E-8</v>
+        <v>3.5398760446940466E-9</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM50" t="n">
-        <v>100.0</v>
+        <v>93.0</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.3099999999994907</v>
+        <v>0.38000000000000966</v>
       </c>
       <c r="AO50" t="s">
         <v>102</v>
@@ -8095,25 +8095,25 @@
         <v>200.0</v>
       </c>
       <c r="AR50" t="n">
-        <v>-1.1437360904875747E-5</v>
+        <v>-3.9318257785674514E-7</v>
       </c>
       <c r="AS50" t="n">
-        <v>7.152415849797061E-5</v>
+        <v>5.636168591361286E-7</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.0501075782064504E-4</v>
+        <v>1.9437337570593627E-6</v>
       </c>
       <c r="AU50" t="n">
-        <v>4.202941082219517E-8</v>
+        <v>3.7781009183321055E-12</v>
       </c>
       <c r="AV50" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW50" t="n">
-        <v>68.0</v>
+        <v>100.0</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.31999999999970896</v>
+        <v>0.5100000000000051</v>
       </c>
       <c r="AY50" t="s">
         <v>102</v>
@@ -8130,25 +8130,25 @@
         <v>20.0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.013367295265197754</v>
+        <v>4.672863596207268E-5</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.006494998931884766</v>
+        <v>6.361469016291773E-4</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0479071731748455</v>
+        <v>0.001814977044670485</v>
       </c>
       <c r="G51" t="n">
-        <v>0.002295097241604636</v>
+        <v>3.2941416726808073E-6</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I51" t="n">
-        <v>81.0</v>
+        <v>100.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.10999999999967258</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="K51" t="s">
         <v>102</v>
@@ -8160,25 +8160,25 @@
         <v>40.0</v>
       </c>
       <c r="N51" t="n">
-        <v>1.4121778112057617E-4</v>
+        <v>-0.002577412397708699</v>
       </c>
       <c r="O51" t="n">
-        <v>-2.1344660451483462E-4</v>
+        <v>0.01020447127206364</v>
       </c>
       <c r="P51" t="n">
-        <v>7.256332312444158E-4</v>
+        <v>0.03271618148658462</v>
       </c>
       <c r="Q51" t="n">
-        <v>5.265435862862118E-7</v>
+        <v>0.001070348531063142</v>
       </c>
       <c r="R51" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S51" t="n">
-        <v>100.0</v>
+        <v>52.0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.15999999999985448</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="U51" t="s">
         <v>102</v>
@@ -8190,25 +8190,25 @@
         <v>70.0</v>
       </c>
       <c r="X51" t="n">
-        <v>5.311455288455559E-4</v>
+        <v>6.666145308309684E-5</v>
       </c>
       <c r="Y51" t="n">
-        <v>-1.4749890991613303E-4</v>
+        <v>-2.1008784088102136E-4</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0015672490518952031</v>
+        <v>6.247077723884331E-4</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.456269590666413E-6</v>
+        <v>3.9025980088251835E-7</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC51" t="n">
-        <v>59.0</v>
+        <v>67.0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.13000000000010914</v>
+        <v>0.28999999999999204</v>
       </c>
       <c r="AE51" t="s">
         <v>102</v>
@@ -8220,25 +8220,25 @@
         <v>100.0</v>
       </c>
       <c r="AH51" t="n">
-        <v>-2.8569603675524923E-6</v>
+        <v>-2.3829936981201172E-4</v>
       </c>
       <c r="AI51" t="n">
-        <v>1.1345531146812564E-4</v>
+        <v>0.0012165307998657227</v>
       </c>
       <c r="AJ51" t="n">
-        <v>3.21344786410549E-4</v>
+        <v>0.00354717614879263</v>
       </c>
       <c r="AK51" t="n">
-        <v>1.0326247175324134E-7</v>
+        <v>1.2582458630563315E-5</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM51" t="n">
-        <v>100.0</v>
+        <v>47.0</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.3500000000003638</v>
+        <v>0.1799999999999926</v>
       </c>
       <c r="AO51" t="s">
         <v>102</v>
@@ -8250,25 +8250,25 @@
         <v>200.0</v>
       </c>
       <c r="AR51" t="n">
-        <v>3.609756730401773E-5</v>
+        <v>-6.558670008129548E-6</v>
       </c>
       <c r="AS51" t="n">
-        <v>-4.6479587692505765E-5</v>
+        <v>1.6385119777747508E-6</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.6654669707349967E-4</v>
+        <v>1.9122069176091827E-5</v>
       </c>
       <c r="AU51" t="n">
-        <v>2.7737802306092064E-8</v>
+        <v>3.656535295752412E-10</v>
       </c>
       <c r="AV51" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW51" t="n">
-        <v>68.0</v>
+        <v>80.0</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.3599999999978536</v>
+        <v>0.569999999999979</v>
       </c>
       <c r="AY51" t="s">
         <v>102</v>
@@ -8285,25 +8285,25 @@
         <v>20.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0039337669328590895</v>
+        <v>-0.005445415939153612</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0019344375836881091</v>
+        <v>0.0017732871330551343</v>
       </c>
       <c r="F52" t="n">
-        <v>0.16964295562490492</v>
+        <v>0.17073597764897733</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1570463606211289</v>
+        <v>0.14762383638314816</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3617807829701649</v>
+        <v>0.34769365815003167</v>
       </c>
       <c r="I52" t="n">
-        <v>61.56</v>
+        <v>62.56</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07399999999999636</v>
+        <v>0.07239999999999995</v>
       </c>
       <c r="K52" t="s">
         <v>102</v>
@@ -8315,25 +8315,25 @@
         <v>40.0</v>
       </c>
       <c r="N52" t="n">
-        <v>6.553984752577962E-4</v>
+        <v>3.4202999640824735E-4</v>
       </c>
       <c r="O52" t="n">
-        <v>-9.424918958545148E-4</v>
+        <v>0.0031990425105815645</v>
       </c>
       <c r="P52" t="n">
-        <v>0.023888633917927605</v>
+        <v>0.05594593704940671</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.005516301275803151</v>
+        <v>0.03904919325530441</v>
       </c>
       <c r="R52" t="n">
-        <v>0.07103918468387271</v>
+        <v>0.19144788117686348</v>
       </c>
       <c r="S52" t="n">
-        <v>67.3</v>
+        <v>69.98</v>
       </c>
       <c r="T52" t="n">
-        <v>0.11379999999999199</v>
+        <v>0.11739999999999995</v>
       </c>
       <c r="U52" t="s">
         <v>102</v>
@@ -8345,25 +8345,25 @@
         <v>70.0</v>
       </c>
       <c r="X52" t="n">
-        <v>-9.449241938041359E-5</v>
+        <v>3.5189360940551096E-4</v>
       </c>
       <c r="Y52" t="n">
-        <v>-1.044361816494795E-4</v>
+        <v>-1.8375397850538738E-4</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.0012124106637649134</v>
+        <v>0.002122044909120078</v>
       </c>
       <c r="AA52" t="n">
-        <v>6.5185213212921434E-6</v>
+        <v>2.847715544966025E-5</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.0022697167187444847</v>
+        <v>0.004946043652206112</v>
       </c>
       <c r="AC52" t="n">
-        <v>82.86</v>
+        <v>80.0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.19280000000004294</v>
+        <v>0.31619999999999865</v>
       </c>
       <c r="AE52" t="s">
         <v>102</v>
@@ -8375,25 +8375,25 @@
         <v>100.0</v>
       </c>
       <c r="AH52" t="n">
-        <v>6.415734617387182E-5</v>
+        <v>-5.361577160693303E-5</v>
       </c>
       <c r="AI52" t="n">
-        <v>3.8365102747011335E-5</v>
+        <v>-1.577306097741054E-5</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.0011710361850443718</v>
+        <v>8.19661675654828E-4</v>
       </c>
       <c r="AK52" t="n">
-        <v>6.652235101177112E-6</v>
+        <v>1.8318548429481967E-6</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.0023213537030770705</v>
+        <v>0.0010879720792912203</v>
       </c>
       <c r="AM52" t="n">
-        <v>77.08</v>
+        <v>77.98</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.22999999999990905</v>
+        <v>0.27800000000000097</v>
       </c>
       <c r="AO52" t="s">
         <v>102</v>
@@ -8405,25 +8405,25 @@
         <v>200.0</v>
       </c>
       <c r="AR52" t="n">
-        <v>-1.6021551172272081E-6</v>
+        <v>3.424445810232461E-5</v>
       </c>
       <c r="AS52" t="n">
-        <v>5.755051820542577E-6</v>
+        <v>-1.016659700736072E-5</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.3770533239712678E-4</v>
+        <v>4.102396503581929E-4</v>
       </c>
       <c r="AU52" t="n">
-        <v>2.467702106556634E-7</v>
+        <v>1.2454322841375446E-6</v>
       </c>
       <c r="AV52" t="n">
-        <v>4.406238453227133E-4</v>
+        <v>0.001048388322574096</v>
       </c>
       <c r="AW52" t="n">
-        <v>83.06</v>
+        <v>80.72</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.4307999999999811</v>
+        <v>0.4517999999999995</v>
       </c>
       <c r="AY52" t="s">
         <v>102</v>
